--- a/Midterm-exam/evidence/spreadsheets/per_site/www.ralingen.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.ralingen.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23844.20351348877</v>
+        <v>24002.454999999994</v>
       </c>
       <c r="C2">
-        <v>8466.075</v>
+        <v>8648.15</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>24539.24456348877</v>
+        <v>24693.789199999996</v>
       </c>
       <c r="F2">
-        <v>170.5</v>
+        <v>125.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8538.468476748374</v>
+        <v>8648.15</v>
       </c>
       <c r="I2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2">
-        <v>6750564</v>
+        <v>6763605</v>
       </c>
       <c r="K2">
         <v>50</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24091.910500000005</v>
+        <v>23972.172999999995</v>
       </c>
       <c r="C3">
-        <v>8479.535</v>
+        <v>8665.848999999998</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>24791.08115000001</v>
+        <v>24677.084499999994</v>
       </c>
       <c r="F3">
-        <v>169.50000000000182</v>
+        <v>164.49999999999818</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8479.535</v>
+        <v>8665.848999999998</v>
       </c>
       <c r="I3">
         <v>55</v>
       </c>
       <c r="J3">
-        <v>6751643</v>
+        <v>6763113</v>
       </c>
       <c r="K3">
         <v>50</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>23977.2225</v>
+        <v>24006.170499999993</v>
       </c>
       <c r="C4">
-        <v>8463.663999999999</v>
+        <v>8615.739</v>
       </c>
       <c r="D4">
         <v>85</v>
       </c>
       <c r="E4">
-        <v>24672.82425</v>
+        <v>24717.895149999997</v>
       </c>
       <c r="F4">
-        <v>109.5</v>
+        <v>138</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8463.663999999999</v>
+        <v>8615.739</v>
       </c>
       <c r="I4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4">
-        <v>6751676</v>
+        <v>6763966</v>
       </c>
       <c r="K4">
         <v>50</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>23977.2225</v>
+        <v>24002.454999999994</v>
       </c>
       <c r="C5">
-        <v>8466.075</v>
+        <v>8648.15</v>
       </c>
       <c r="D5">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5">
-        <v>24672.82425</v>
+        <v>24693.789199999996</v>
       </c>
       <c r="F5">
-        <v>169.50000000000182</v>
+        <v>138</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8479.535</v>
+        <v>8648.15</v>
       </c>
       <c r="I5">
         <v>55</v>
       </c>
       <c r="J5">
-        <v>6751643</v>
+        <v>6763605</v>
       </c>
       <c r="K5">
         <v>50</v>
@@ -738,16 +738,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E6">
-        <v>24885</v>
+        <v>24890</v>
       </c>
       <c r="F6">
         <v>87333</v>
       </c>
       <c r="G6">
-        <v>0.007236881504999999</v>
+        <v>0.007238335569999999</v>
       </c>
       <c r="H6">
-        <v>0.009532980639000002</v>
+        <v>0.009534896046000002</v>
       </c>
     </row>
     <row r="7">
@@ -764,16 +764,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E7">
-        <v>24972</v>
+        <v>24970</v>
       </c>
       <c r="F7">
         <v>72380</v>
       </c>
       <c r="G7">
-        <v>0.007262182235999999</v>
+        <v>0.007261600609999998</v>
       </c>
       <c r="H7">
-        <v>0.0095663087208</v>
+        <v>0.009565542558000002</v>
       </c>
     </row>
     <row r="8">
@@ -894,16 +894,16 @@
         <v>application/json</v>
       </c>
       <c r="E12">
-        <v>2054</v>
+        <v>2180</v>
       </c>
       <c r="F12">
         <v>4250</v>
       </c>
       <c r="G12">
-        <v>0.0005973299019999999</v>
+        <v>0.0006339723399999998</v>
       </c>
       <c r="H12">
-        <v>0.0007868491956000001</v>
+        <v>0.0008351174520000001</v>
       </c>
     </row>
     <row r="13">
@@ -920,16 +920,16 @@
         <v>text/css</v>
       </c>
       <c r="E13">
-        <v>1223</v>
+        <v>1269</v>
       </c>
       <c r="F13">
         <v>8733</v>
       </c>
       <c r="G13">
-        <v>0.00035566429899999995</v>
+        <v>0.00036904169699999995</v>
       </c>
       <c r="H13">
-        <v>0.00046850855220000005</v>
+        <v>0.0004861302966000001</v>
       </c>
     </row>
     <row r="14">
@@ -946,16 +946,16 @@
         <v>application/json</v>
       </c>
       <c r="E14">
-        <v>3723</v>
+        <v>3822</v>
       </c>
       <c r="F14">
         <v>10148</v>
       </c>
       <c r="G14">
-        <v>0.0010826967989999998</v>
+        <v>0.001111487286</v>
       </c>
       <c r="H14">
-        <v>0.0014262120522000002</v>
+        <v>0.0014641371108000002</v>
       </c>
     </row>
     <row r="15">
@@ -972,16 +972,16 @@
         <v>application/json</v>
       </c>
       <c r="E15">
-        <v>9452</v>
+        <v>9578</v>
       </c>
       <c r="F15">
         <v>43253</v>
       </c>
       <c r="G15">
-        <v>0.0027487644759999997</v>
+        <v>0.0027854069139999996</v>
       </c>
       <c r="H15">
-        <v>0.0036208853928000008</v>
+        <v>0.0036691536492000007</v>
       </c>
     </row>
     <row r="16">
@@ -998,16 +998,16 @@
         <v>application/json</v>
       </c>
       <c r="E16">
-        <v>3058</v>
+        <v>3193</v>
       </c>
       <c r="F16">
         <v>5437</v>
       </c>
       <c r="G16">
-        <v>0.0008893061539999999</v>
+        <v>0.0009285659089999998</v>
       </c>
       <c r="H16">
-        <v>0.0011714629212000002</v>
+        <v>0.0012231789102000001</v>
       </c>
     </row>
     <row r="17">
@@ -1073,7 +1073,7 @@
         <v>Preflight</v>
       </c>
       <c r="D19" t="str">
-        <v>text/html</v>
+        <v/>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1096,16 +1096,19 @@
         <v>Fetch</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v>application/json</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.00005554528299999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0000731685474</v>
       </c>
     </row>
     <row r="21">
@@ -1113,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="str">
-        <v>https://fonts.gstatic.com/s/materialsymbolsoutlined/v292/kJF1BvYX7BgnkSrUwT8OhrdQw4oELdPIeeII9v6oDMzByHX9rA6RzaxHMPdY43zj-jCxv3fzvRNU22ZXGJpEpjC_1v-p_4MrImHCIJIZrDCvHOejbdhzrA.woff2</v>
+        <v>https://fonts.gstatic.com/s/materialsymbolsoutlined/v296/kJF1BvYX7BgnkSrUwT8OhrdQw4oELdPIeeII9v6oDMzByHX9rA6RzaxHMPdY43zj-jCxv3fzvRNU22ZXGJpEpjC_1v-p_4MrImHCIJIZrDCvHOejbdhzrA.woff2</v>
       </c>
       <c r="C21" t="str">
         <v>Font</v>
@@ -1122,16 +1125,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E21">
-        <v>289509</v>
+        <v>303516</v>
       </c>
       <c r="F21">
-        <v>289440</v>
+        <v>303444</v>
       </c>
       <c r="G21">
-        <v>0.084192980817</v>
+        <v>0.088266398508</v>
       </c>
       <c r="H21">
-        <v>0.11090551303260003</v>
+        <v>0.11627133420239999</v>
       </c>
     </row>
     <row r="22">
@@ -1327,16 +1330,16 @@
         <v>application/json</v>
       </c>
       <c r="E29">
-        <v>2409</v>
+        <v>2418</v>
       </c>
       <c r="F29">
         <v>3213</v>
       </c>
       <c r="G29">
-        <v>0.0007005685169999999</v>
+        <v>0.0007031858339999999</v>
       </c>
       <c r="H29">
-        <v>0.0009228430926000002</v>
+        <v>0.0009262908252000001</v>
       </c>
     </row>
     <row r="30">
@@ -1353,16 +1356,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E30">
-        <v>145660</v>
+        <v>145439</v>
       </c>
       <c r="F30">
-        <v>426568</v>
+        <v>426050</v>
       </c>
       <c r="G30">
-        <v>0.04235982158</v>
+        <v>0.042295551907</v>
       </c>
       <c r="H30">
-        <v>0.055799636724000005</v>
+        <v>0.05571497573460001</v>
       </c>
     </row>
     <row r="31">
@@ -1506,16 +1509,16 @@
         <v>application/json</v>
       </c>
       <c r="E36">
-        <v>5875</v>
+        <v>5688</v>
       </c>
       <c r="F36">
-        <v>5458</v>
+        <v>5263</v>
       </c>
       <c r="G36">
-        <v>0.0017085263749999997</v>
+        <v>0.0016541443439999997</v>
       </c>
       <c r="H36">
-        <v>0.002250603225</v>
+        <v>0.0021789670032</v>
       </c>
     </row>
     <row r="37">
@@ -1532,16 +1535,16 @@
         <v>application/json</v>
       </c>
       <c r="E37">
-        <v>2289</v>
+        <v>2281</v>
       </c>
       <c r="F37">
         <v>3301</v>
       </c>
       <c r="G37">
-        <v>0.0006656709569999999</v>
+        <v>0.0006633444529999999</v>
       </c>
       <c r="H37">
-        <v>0.0008768733246</v>
+        <v>0.0008738086733999999</v>
       </c>
     </row>
     <row r="38">
@@ -1558,16 +1561,16 @@
         <v>application/json</v>
       </c>
       <c r="E38">
-        <v>23693</v>
+        <v>22206</v>
       </c>
       <c r="F38">
-        <v>280353</v>
+        <v>266424</v>
       </c>
       <c r="G38">
-        <v>0.006890232408999999</v>
+        <v>0.006457793477999999</v>
       </c>
       <c r="H38">
-        <v>0.009076347610200002</v>
+        <v>0.0085067055684</v>
       </c>
     </row>
     <row r="39">
@@ -1584,16 +1587,16 @@
         <v>application/json</v>
       </c>
       <c r="E39">
-        <v>13037</v>
+        <v>13055</v>
       </c>
       <c r="F39">
         <v>32820</v>
       </c>
       <c r="G39">
-        <v>0.0037913290809999996</v>
+        <v>0.0037965637149999995</v>
       </c>
       <c r="H39">
-        <v>0.0049942322118000015</v>
+        <v>0.0050011276770000005</v>
       </c>
     </row>
     <row r="40">
@@ -1610,16 +1613,16 @@
         <v>application/json</v>
       </c>
       <c r="E40">
-        <v>3091</v>
+        <v>3064</v>
       </c>
       <c r="F40">
         <v>5490</v>
       </c>
       <c r="G40">
-        <v>0.0008989029829999999</v>
+        <v>0.0008910510319999999</v>
       </c>
       <c r="H40">
-        <v>0.0011841046074000001</v>
+        <v>0.0011737614096</v>
       </c>
     </row>
     <row r="41">
@@ -1636,16 +1639,16 @@
         <v>application/json</v>
       </c>
       <c r="E41">
-        <v>29240</v>
+        <v>29124</v>
       </c>
       <c r="F41">
         <v>87490</v>
       </c>
       <c r="G41">
-        <v>0.008503372119999998</v>
+        <v>0.008469637811999999</v>
       </c>
       <c r="H41">
-        <v>0.011201300136000002</v>
+        <v>0.0111568626936</v>
       </c>
     </row>
     <row r="42">
@@ -1653,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-4NGW3NLCCC&amp;gtm=45je5b71v9102003320za200zd9102003320&amp;_p=1762814340679&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1581183922.1762814341&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~102015666~103116026~103200004~103233427~104527906~104528501~104684208~104684211~105391252~115583767~115938466~115938468~116217636~116217638&amp;sid=1762814340&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.ralingen.kommune.no%2F&amp;dt=Forside%20-%20R%C3%A6lingen%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=892</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-4NGW3NLCCC&amp;gtm=45je5bc1v9102003320za200zd9102003320&amp;_p=1763141040259&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1479310333.1763141040&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115583767~115616986~115938465~115938468~116194002~116217636~116217638&amp;sid=1763141040&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.ralingen.kommune.no%2F&amp;dt=Forside%20-%20R%C3%A6lingen%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=905</v>
       </c>
       <c r="C42" t="str">
         <v>Fetch</v>
@@ -1711,16 +1714,16 @@
         <v>image/png</v>
       </c>
       <c r="E44">
-        <v>688189</v>
+        <v>688544</v>
       </c>
       <c r="F44">
         <v>687240</v>
       </c>
       <c r="G44">
-        <v>0.20013430765699997</v>
+        <v>0.200237546272</v>
       </c>
       <c r="H44">
-        <v>0.2636324055846</v>
+        <v>0.2637683994816001</v>
       </c>
     </row>
     <row r="45">
@@ -1737,16 +1740,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E45">
-        <v>22527</v>
+        <v>22299</v>
       </c>
       <c r="F45">
         <v>21950</v>
       </c>
       <c r="G45">
-        <v>0.006551144450999999</v>
+        <v>0.006484839086999999</v>
       </c>
       <c r="H45">
-        <v>0.0086296746978</v>
+        <v>0.0085423321386</v>
       </c>
     </row>
     <row r="46">
@@ -1763,16 +1766,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E46">
-        <v>29976</v>
+        <v>29766</v>
       </c>
       <c r="F46">
         <v>29398</v>
       </c>
       <c r="G46">
-        <v>0.008717410487999998</v>
+        <v>0.008656339757999999</v>
       </c>
       <c r="H46">
-        <v>0.0114832480464</v>
+        <v>0.011402800952399997</v>
       </c>
     </row>
     <row r="47">
@@ -1789,16 +1792,16 @@
         <v>image/png</v>
       </c>
       <c r="E47">
-        <v>154290</v>
+        <v>154136</v>
       </c>
       <c r="F47">
         <v>153641</v>
       </c>
       <c r="G47">
-        <v>0.04486953776999999</v>
+        <v>0.044824752568</v>
       </c>
       <c r="H47">
-        <v>0.059105629206</v>
+        <v>0.0590466346704</v>
       </c>
     </row>
     <row r="48">
@@ -1893,16 +1896,16 @@
         <v>image/webp</v>
       </c>
       <c r="E51">
-        <v>1273297</v>
+        <v>1273861</v>
       </c>
       <c r="F51">
         <v>1271956</v>
       </c>
       <c r="G51">
-        <v>0.37029132046099994</v>
+        <v>0.3704553389929999</v>
       </c>
       <c r="H51">
-        <v>0.48777639737580014</v>
+        <v>0.48799245528540003</v>
       </c>
     </row>
     <row r="52">
@@ -2023,16 +2026,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E56">
-        <v>24885</v>
+        <v>24890</v>
       </c>
       <c r="F56">
         <v>87333</v>
       </c>
       <c r="G56">
-        <v>0.007236881504999999</v>
+        <v>0.007238335569999999</v>
       </c>
       <c r="H56">
-        <v>0.009532980639000002</v>
+        <v>0.009534896046000002</v>
       </c>
     </row>
     <row r="57">
@@ -2127,16 +2130,16 @@
         <v>application/json</v>
       </c>
       <c r="E60">
-        <v>1192</v>
+        <v>1066</v>
       </c>
       <c r="F60">
         <v>109</v>
       </c>
       <c r="G60">
-        <v>0.000346649096</v>
+        <v>0.00031000665799999996</v>
       </c>
       <c r="H60">
-        <v>0.00045663302879999995</v>
+        <v>0.0004083647724000001</v>
       </c>
     </row>
     <row r="61">
@@ -2179,16 +2182,16 @@
         <v>application/json</v>
       </c>
       <c r="E62">
-        <v>2189</v>
+        <v>2171</v>
       </c>
       <c r="F62">
         <v>4250</v>
       </c>
       <c r="G62">
-        <v>0.0006365896569999999</v>
+        <v>0.0006313550229999999</v>
       </c>
       <c r="H62">
-        <v>0.0008385651846000001</v>
+        <v>0.0008316697194000002</v>
       </c>
     </row>
     <row r="63">
@@ -2231,16 +2234,16 @@
         <v>application/json</v>
       </c>
       <c r="E64">
-        <v>3831</v>
+        <v>3696</v>
       </c>
       <c r="F64">
         <v>10148</v>
       </c>
       <c r="G64">
-        <v>0.0011141046029999999</v>
+        <v>0.0010748448479999998</v>
       </c>
       <c r="H64">
-        <v>0.0014675848434</v>
+        <v>0.0014158688544000002</v>
       </c>
     </row>
     <row r="65">
@@ -2257,16 +2260,16 @@
         <v>application/json</v>
       </c>
       <c r="E65">
-        <v>9578</v>
+        <v>9443</v>
       </c>
       <c r="F65">
         <v>43253</v>
       </c>
       <c r="G65">
-        <v>0.0027854069139999996</v>
+        <v>0.002746147159</v>
       </c>
       <c r="H65">
-        <v>0.0036691536492000007</v>
+        <v>0.003617437660199999</v>
       </c>
     </row>
     <row r="66">
@@ -2283,16 +2286,16 @@
         <v>application/json</v>
       </c>
       <c r="E66">
-        <v>3166</v>
+        <v>3058</v>
       </c>
       <c r="F66">
         <v>5437</v>
       </c>
       <c r="G66">
-        <v>0.0009207139579999999</v>
+        <v>0.0008893061539999999</v>
       </c>
       <c r="H66">
-        <v>0.0012128357124</v>
+        <v>0.0011714629212000002</v>
       </c>
     </row>
     <row r="67">
@@ -2355,19 +2358,22 @@
         <v>https://view.rekai.se/view</v>
       </c>
       <c r="C69" t="str">
-        <v>Preflight</v>
+        <v>Fetch</v>
       </c>
       <c r="D69" t="str">
-        <v/>
+        <v>application/json</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="F69">
+        <v>17</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>0.00005554528299999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>0.0000731685474</v>
       </c>
     </row>
     <row r="70">
@@ -2378,22 +2384,19 @@
         <v>https://view.rekai.se/view</v>
       </c>
       <c r="C70" t="str">
-        <v>Fetch</v>
+        <v>Preflight</v>
       </c>
       <c r="D70" t="str">
-        <v>application/json</v>
+        <v/>
       </c>
       <c r="E70">
-        <v>191</v>
-      </c>
-      <c r="F70">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0.00005554528299999999</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>0.0000731685474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2401,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="str">
-        <v>https://fonts.gstatic.com/s/materialsymbolsoutlined/v292/kJF1BvYX7BgnkSrUwT8OhrdQw4oELdPIeeII9v6oDMzByHX9rA6RzaxHMPdY43zj-jCxv3fzvRNU22ZXGJpEpjC_1v-p_4MrImHCIJIZrDCvHOejbdhzrA.woff2</v>
+        <v>https://fonts.gstatic.com/s/materialsymbolsoutlined/v296/kJF1BvYX7BgnkSrUwT8OhrdQw4oELdPIeeII9v6oDMzByHX9rA6RzaxHMPdY43zj-jCxv3fzvRNU22ZXGJpEpjC_1v-p_4MrImHCIJIZrDCvHOejbdhzrA.woff2</v>
       </c>
       <c r="C71" t="str">
         <v>Font</v>
@@ -2410,16 +2413,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E71">
-        <v>289509</v>
+        <v>303516</v>
       </c>
       <c r="F71">
-        <v>289440</v>
+        <v>303444</v>
       </c>
       <c r="G71">
-        <v>0.084192980817</v>
+        <v>0.088266398508</v>
       </c>
       <c r="H71">
-        <v>0.11090551303260003</v>
+        <v>0.11627133420239999</v>
       </c>
     </row>
     <row r="72">
@@ -2580,25 +2583,25 @@
         <v>2</v>
       </c>
       <c r="B78" t="str">
-        <v>https://www.ralingen.kommune.no/images/ralingen/kommunevaapen.svg</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles/d56590f9-282c-4605-8446-f9152a30bc1d?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;language=nb_no&amp;includeCategories=true&amp;getRecursiveContent=true</v>
       </c>
       <c r="C78" t="str">
-        <v>Other</v>
+        <v>Fetch</v>
       </c>
       <c r="D78" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>2427</v>
       </c>
       <c r="F78">
-        <v>1626</v>
+        <v>3213</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>0.0007058031509999999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>0.0009297385578000001</v>
       </c>
     </row>
     <row r="79">
@@ -2606,25 +2609,25 @@
         <v>2</v>
       </c>
       <c r="B79" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles/d56590f9-282c-4605-8446-f9152a30bc1d?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;language=nb_no&amp;includeCategories=true&amp;getRecursiveContent=true</v>
+        <v>https://www.ralingen.kommune.no/images/ralingen/kommunevaapen.svg</v>
       </c>
       <c r="C79" t="str">
-        <v>Fetch</v>
+        <v>Other</v>
       </c>
       <c r="D79" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E79">
-        <v>2409</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>3213</v>
+        <v>1626</v>
       </c>
       <c r="G79">
-        <v>0.0007005685169999999</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0.0009228430926000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2641,16 +2644,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E80">
-        <v>145647</v>
+        <v>145454</v>
       </c>
       <c r="F80">
-        <v>426558</v>
+        <v>426077</v>
       </c>
       <c r="G80">
-        <v>0.04235604101099999</v>
+        <v>0.042299914102</v>
       </c>
       <c r="H80">
-        <v>0.05579465666580001</v>
+        <v>0.0557207219556</v>
       </c>
     </row>
     <row r="81">
@@ -2794,16 +2797,16 @@
         <v>application/json</v>
       </c>
       <c r="E86">
-        <v>5874</v>
+        <v>5677</v>
       </c>
       <c r="F86">
-        <v>5458</v>
+        <v>5263</v>
       </c>
       <c r="G86">
-        <v>0.0017082355619999997</v>
+        <v>0.0016509454009999997</v>
       </c>
       <c r="H86">
-        <v>0.0022502201436</v>
+        <v>0.0021747531078000005</v>
       </c>
     </row>
     <row r="87">
@@ -2846,16 +2849,16 @@
         <v>application/json</v>
       </c>
       <c r="E88">
-        <v>23693</v>
+        <v>22206</v>
       </c>
       <c r="F88">
-        <v>280353</v>
+        <v>266424</v>
       </c>
       <c r="G88">
-        <v>0.006890232408999999</v>
+        <v>0.006457793477999999</v>
       </c>
       <c r="H88">
-        <v>0.009076347610200002</v>
+        <v>0.0085067055684</v>
       </c>
     </row>
     <row r="89">
@@ -2872,16 +2875,16 @@
         <v>application/json</v>
       </c>
       <c r="E89">
-        <v>13056</v>
+        <v>13064</v>
       </c>
       <c r="F89">
         <v>32820</v>
       </c>
       <c r="G89">
-        <v>0.0037968545279999993</v>
+        <v>0.0037991810319999994</v>
       </c>
       <c r="H89">
-        <v>0.005001510758400001</v>
+        <v>0.005004575409600001</v>
       </c>
     </row>
     <row r="90">
@@ -2898,16 +2901,16 @@
         <v>application/json</v>
       </c>
       <c r="E90">
-        <v>3082</v>
+        <v>3073</v>
       </c>
       <c r="F90">
         <v>5490</v>
       </c>
       <c r="G90">
-        <v>0.0008962856659999999</v>
+        <v>0.0008936683489999998</v>
       </c>
       <c r="H90">
-        <v>0.0011806568748</v>
+        <v>0.0011772091422</v>
       </c>
     </row>
     <row r="91">
@@ -2924,16 +2927,16 @@
         <v>application/json</v>
       </c>
       <c r="E91">
-        <v>29267</v>
+        <v>29142</v>
       </c>
       <c r="F91">
         <v>87490</v>
       </c>
       <c r="G91">
-        <v>0.008511224070999999</v>
+        <v>0.008474872445999999</v>
       </c>
       <c r="H91">
-        <v>0.011211643333800002</v>
+        <v>0.0111637581588</v>
       </c>
     </row>
     <row r="92">
@@ -2941,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="B92" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-4NGW3NLCCC&amp;gtm=45je5b71v9102003320za200zd9102003320&amp;_p=1762814383853&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=146040678.1762814384&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528500~104684208~104684211~115583767~115938465~115938468~116217636~116217638&amp;sid=1762814383&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.ralingen.kommune.no%2F&amp;dt=Forside%20-%20R%C3%A6lingen%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=905</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-4NGW3NLCCC&amp;gtm=45je5bc1v9102003320za200zd9102003320&amp;_p=1763141053844&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1362390169.1763141054&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115938465~115938468~116194002~116217636~116217638~116251938~116251940&amp;sid=1763141053&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.ralingen.kommune.no%2F&amp;dt=Forside%20-%20R%C3%A6lingen%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=885</v>
       </c>
       <c r="C92" t="str">
         <v>Fetch</v>
@@ -2973,16 +2976,16 @@
         <v>application/json</v>
       </c>
       <c r="E93">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="F93">
         <v>1987</v>
       </c>
       <c r="G93">
-        <v>0.00048740258799999993</v>
+        <v>0.0004847852709999999</v>
       </c>
       <c r="H93">
-        <v>0.0006420444264000001</v>
+        <v>0.0006385966938000002</v>
       </c>
     </row>
     <row r="94">
@@ -2999,16 +3002,16 @@
         <v>image/png</v>
       </c>
       <c r="E94">
-        <v>688571</v>
+        <v>688322</v>
       </c>
       <c r="F94">
         <v>687240</v>
       </c>
       <c r="G94">
-        <v>0.20024539822299997</v>
+        <v>0.20017298578599999</v>
       </c>
       <c r="H94">
-        <v>0.26377874267940005</v>
+        <v>0.2636833554108</v>
       </c>
     </row>
     <row r="95">
@@ -3025,16 +3028,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E95">
-        <v>22299</v>
+        <v>22290</v>
       </c>
       <c r="F95">
         <v>21950</v>
       </c>
       <c r="G95">
-        <v>0.006484839086999999</v>
+        <v>0.006482221769999999</v>
       </c>
       <c r="H95">
-        <v>0.0085423321386</v>
+        <v>0.008538884406</v>
       </c>
     </row>
     <row r="96">
@@ -3051,16 +3054,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E96">
-        <v>29757</v>
+        <v>29989</v>
       </c>
       <c r="F96">
         <v>29398</v>
       </c>
       <c r="G96">
-        <v>0.008653722440999998</v>
+        <v>0.008721191057</v>
       </c>
       <c r="H96">
-        <v>0.0113993532198</v>
+        <v>0.0114882281046</v>
       </c>
     </row>
     <row r="97">
@@ -3285,16 +3288,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E105">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F105">
         <v>2522</v>
       </c>
       <c r="G105">
-        <v>0.000519682831</v>
+        <v>0.000522300148</v>
       </c>
       <c r="H105">
-        <v>0.0006845664618000001</v>
+        <v>0.0006880141944000001</v>
       </c>
     </row>
     <row r="106">
@@ -3311,16 +3314,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E106">
-        <v>24885</v>
+        <v>24890</v>
       </c>
       <c r="F106">
         <v>87333</v>
       </c>
       <c r="G106">
-        <v>0.007236881504999999</v>
+        <v>0.007238335569999999</v>
       </c>
       <c r="H106">
-        <v>0.009532980639000002</v>
+        <v>0.009534896046000002</v>
       </c>
     </row>
     <row r="107">
@@ -3337,16 +3340,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E107">
-        <v>24971</v>
+        <v>24970</v>
       </c>
       <c r="F107">
         <v>72380</v>
       </c>
       <c r="G107">
-        <v>0.007261891422999999</v>
+        <v>0.007261600609999998</v>
       </c>
       <c r="H107">
-        <v>0.009565925639400001</v>
+        <v>0.009565542558000002</v>
       </c>
     </row>
     <row r="108">
@@ -3519,16 +3522,16 @@
         <v>application/json</v>
       </c>
       <c r="E114">
-        <v>3831</v>
+        <v>3849</v>
       </c>
       <c r="F114">
         <v>10148</v>
       </c>
       <c r="G114">
-        <v>0.0011141046029999999</v>
+        <v>0.0011193392369999997</v>
       </c>
       <c r="H114">
-        <v>0.0014675848434</v>
+        <v>0.0014744803086000002</v>
       </c>
     </row>
     <row r="115">
@@ -3545,16 +3548,16 @@
         <v>application/json</v>
       </c>
       <c r="E115">
-        <v>9587</v>
+        <v>9560</v>
       </c>
       <c r="F115">
         <v>43253</v>
       </c>
       <c r="G115">
-        <v>0.0027880242309999996</v>
+        <v>0.0027801722799999993</v>
       </c>
       <c r="H115">
-        <v>0.0036726013817999998</v>
+        <v>0.003662258184</v>
       </c>
     </row>
     <row r="116">
@@ -3571,16 +3574,16 @@
         <v>application/json</v>
       </c>
       <c r="E116">
-        <v>3193</v>
+        <v>3184</v>
       </c>
       <c r="F116">
         <v>5437</v>
       </c>
       <c r="G116">
-        <v>0.0009285659089999998</v>
+        <v>0.0009259485919999999</v>
       </c>
       <c r="H116">
-        <v>0.0012231789102000001</v>
+        <v>0.0012197311776</v>
       </c>
     </row>
     <row r="117">
@@ -3689,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="B121" t="str">
-        <v>https://fonts.gstatic.com/s/materialsymbolsoutlined/v292/kJF1BvYX7BgnkSrUwT8OhrdQw4oELdPIeeII9v6oDMzByHX9rA6RzaxHMPdY43zj-jCxv3fzvRNU22ZXGJpEpjC_1v-p_4MrImHCIJIZrDCvHOejbdhzrA.woff2</v>
+        <v>https://fonts.gstatic.com/s/materialsymbolsoutlined/v296/kJF1BvYX7BgnkSrUwT8OhrdQw4oELdPIeeII9v6oDMzByHX9rA6RzaxHMPdY43zj-jCxv3fzvRNU22ZXGJpEpjC_1v-p_4MrImHCIJIZrDCvHOejbdhzrA.woff2</v>
       </c>
       <c r="C121" t="str">
         <v>Font</v>
@@ -3698,16 +3701,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E121">
-        <v>289509</v>
+        <v>303516</v>
       </c>
       <c r="F121">
-        <v>289440</v>
+        <v>303444</v>
       </c>
       <c r="G121">
-        <v>0.084192980817</v>
+        <v>0.088266398508</v>
       </c>
       <c r="H121">
-        <v>0.11090551303260003</v>
+        <v>0.11627133420239999</v>
       </c>
     </row>
     <row r="122">
@@ -3929,16 +3932,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E130">
-        <v>145647</v>
+        <v>145707</v>
       </c>
       <c r="F130">
-        <v>426558</v>
+        <v>426969</v>
       </c>
       <c r="G130">
-        <v>0.04235604101099999</v>
+        <v>0.042373489790999995</v>
       </c>
       <c r="H130">
-        <v>0.05579465666580001</v>
+        <v>0.0558176415498</v>
       </c>
     </row>
     <row r="131">
@@ -4024,22 +4027,25 @@
         <v>3</v>
       </c>
       <c r="B134" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;category=ff373347-8373-4c64-b528-689f77fcd395&amp;contentTypes=5be9ba0d-3682-4493-9587-306a99911bf3,8ee596e3-98cc-43e0-b785-96cc6325773c,93847071-c959-4ce5-a79a-686af7dbd419,e662f30f-ecd9-4974-8657-35b726365572,09ceb3f2-3b86-4a5f-a823-16c6210982bc,a72e7e73-1864-46ee-adba-814d05b51d9e,fd54728e-1956-433b-a33b-a7f95023dd37,1bb71f41-4ee6-4394-b78f-3202e2f5eeda&amp;language=nb_no&amp;limit=12&amp;offset=0&amp;includeCategories=true&amp;getRecursiveContent=true&amp;LanguageMode=Strict</v>
+        <v>https://www.ralingen.kommune.no/images/ralingen/symbol-cluster.svg</v>
       </c>
       <c r="C134" t="str">
-        <v>Preflight</v>
+        <v>Image</v>
       </c>
       <c r="D134" t="str">
-        <v/>
+        <v>image/svg+xml</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1794</v>
+      </c>
+      <c r="F134">
+        <v>1042</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>0.000521718522</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>0.0006872480316000001</v>
       </c>
     </row>
     <row r="135">
@@ -4047,25 +4053,25 @@
         <v>3</v>
       </c>
       <c r="B135" t="str">
-        <v>https://www.ralingen.kommune.no/images/ralingen/symbol-cluster.svg</v>
+        <v>https://predict.rekai.se/predict?mb=1&amp;vt=2&amp;v30=1&amp;dlv=30&amp;p=13371520&amp;ubl=en-GB&amp;nr=6&amp;addcontent=true&amp;pl=nb&amp;currentp=%2F&amp;currentid=%2F&amp;pn=Forside%20-%20R%C3%A6lingen%20kommune&amp;p0=%2F</v>
       </c>
       <c r="C135" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D135" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E135">
-        <v>1794</v>
+        <v>5679</v>
       </c>
       <c r="F135">
-        <v>1042</v>
+        <v>5263</v>
       </c>
       <c r="G135">
-        <v>0.000521718522</v>
+        <v>0.0016515270269999997</v>
       </c>
       <c r="H135">
-        <v>0.0006872480316000001</v>
+        <v>0.0021755192706</v>
       </c>
     </row>
     <row r="136">
@@ -4073,25 +4079,25 @@
         <v>3</v>
       </c>
       <c r="B136" t="str">
-        <v>https://predict.rekai.se/predict?mb=1&amp;vt=2&amp;v30=1&amp;dlv=30&amp;p=13371520&amp;ubl=en-GB&amp;nr=6&amp;addcontent=true&amp;pl=nb&amp;currentp=%2F&amp;currentid=%2F&amp;pn=Forside%20-%20R%C3%A6lingen%20kommune&amp;p0=%2F</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=17c15981-758d-4d09-a7ee-b2d47d2af6f0%20%20%20%20%20%20&amp;limit=1&amp;offset=0&amp;sortOrder=Published&amp;language=nb_no</v>
       </c>
       <c r="C136" t="str">
-        <v>XHR</v>
+        <v>Fetch</v>
       </c>
       <c r="D136" t="str">
         <v>application/json</v>
       </c>
       <c r="E136">
-        <v>5874</v>
+        <v>2272</v>
       </c>
       <c r="F136">
-        <v>5458</v>
+        <v>3301</v>
       </c>
       <c r="G136">
-        <v>0.0017082355619999997</v>
+        <v>0.0006607271359999998</v>
       </c>
       <c r="H136">
-        <v>0.0022502201436</v>
+        <v>0.0008703609408</v>
       </c>
     </row>
     <row r="137">
@@ -4099,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="B137" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=17c15981-758d-4d09-a7ee-b2d47d2af6f0%20%20%20%20%20%20&amp;limit=1&amp;offset=0&amp;sortOrder=Published&amp;language=nb_no</v>
+        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=2390&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=&amp;Kunde=ralingen&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=&amp;Distributor=</v>
       </c>
       <c r="C137" t="str">
         <v>Fetch</v>
@@ -4108,16 +4114,16 @@
         <v>application/json</v>
       </c>
       <c r="E137">
-        <v>2290</v>
+        <v>22206</v>
       </c>
       <c r="F137">
-        <v>3301</v>
+        <v>266424</v>
       </c>
       <c r="G137">
-        <v>0.0006659617699999999</v>
+        <v>0.006457793477999999</v>
       </c>
       <c r="H137">
-        <v>0.0008772564060000001</v>
+        <v>0.0085067055684</v>
       </c>
     </row>
     <row r="138">
@@ -4125,7 +4131,7 @@
         <v>3</v>
       </c>
       <c r="B138" t="str">
-        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=2390&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=&amp;Kunde=ralingen&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=&amp;Distributor=</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=73da834a-d2cf-4659-ab23-760986ecbfde&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=3&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
       </c>
       <c r="C138" t="str">
         <v>Fetch</v>
@@ -4134,16 +4140,16 @@
         <v>application/json</v>
       </c>
       <c r="E138">
-        <v>23693</v>
+        <v>13055</v>
       </c>
       <c r="F138">
-        <v>280353</v>
+        <v>32820</v>
       </c>
       <c r="G138">
-        <v>0.006890232408999999</v>
+        <v>0.0037965637149999995</v>
       </c>
       <c r="H138">
-        <v>0.009076347610200002</v>
+        <v>0.0050011276770000005</v>
       </c>
     </row>
     <row r="139">
@@ -4151,7 +4157,7 @@
         <v>3</v>
       </c>
       <c r="B139" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=73da834a-d2cf-4659-ab23-760986ecbfde&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=3&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=4e159a34-1e45-413f-b053-a2bd9f843121&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=1&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
       </c>
       <c r="C139" t="str">
         <v>Fetch</v>
@@ -4160,16 +4166,16 @@
         <v>application/json</v>
       </c>
       <c r="E139">
-        <v>13064</v>
+        <v>3073</v>
       </c>
       <c r="F139">
-        <v>32820</v>
+        <v>5490</v>
       </c>
       <c r="G139">
-        <v>0.0037991810319999994</v>
+        <v>0.0008936683489999998</v>
       </c>
       <c r="H139">
-        <v>0.005004575409600001</v>
+        <v>0.0011772091422</v>
       </c>
     </row>
     <row r="140">
@@ -4177,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="B140" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=4e159a34-1e45-413f-b053-a2bd9f843121&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=1&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;category=ff373347-8373-4c64-b528-689f77fcd395&amp;contentTypes=5be9ba0d-3682-4493-9587-306a99911bf3,8ee596e3-98cc-43e0-b785-96cc6325773c,93847071-c959-4ce5-a79a-686af7dbd419,e662f30f-ecd9-4974-8657-35b726365572,09ceb3f2-3b86-4a5f-a823-16c6210982bc,a72e7e73-1864-46ee-adba-814d05b51d9e,fd54728e-1956-433b-a33b-a7f95023dd37,1bb71f41-4ee6-4394-b78f-3202e2f5eeda&amp;language=nb_no&amp;limit=12&amp;offset=0&amp;includeCategories=true&amp;getRecursiveContent=true&amp;LanguageMode=Strict</v>
       </c>
       <c r="C140" t="str">
         <v>Fetch</v>
@@ -4186,16 +4192,16 @@
         <v>application/json</v>
       </c>
       <c r="E140">
-        <v>3100</v>
+        <v>29259</v>
       </c>
       <c r="F140">
-        <v>5490</v>
+        <v>87490</v>
       </c>
       <c r="G140">
-        <v>0.0009015202999999998</v>
+        <v>0.008508897566999999</v>
       </c>
       <c r="H140">
-        <v>0.00118755234</v>
+        <v>0.011208578682600001</v>
       </c>
     </row>
     <row r="141">
@@ -4206,22 +4212,19 @@
         <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;category=ff373347-8373-4c64-b528-689f77fcd395&amp;contentTypes=5be9ba0d-3682-4493-9587-306a99911bf3,8ee596e3-98cc-43e0-b785-96cc6325773c,93847071-c959-4ce5-a79a-686af7dbd419,e662f30f-ecd9-4974-8657-35b726365572,09ceb3f2-3b86-4a5f-a823-16c6210982bc,a72e7e73-1864-46ee-adba-814d05b51d9e,fd54728e-1956-433b-a33b-a7f95023dd37,1bb71f41-4ee6-4394-b78f-3202e2f5eeda&amp;language=nb_no&amp;limit=12&amp;offset=0&amp;includeCategories=true&amp;getRecursiveContent=true&amp;LanguageMode=Strict</v>
       </c>
       <c r="C141" t="str">
-        <v>Fetch</v>
+        <v>Preflight</v>
       </c>
       <c r="D141" t="str">
-        <v>application/json</v>
+        <v/>
       </c>
       <c r="E141">
-        <v>29249</v>
-      </c>
-      <c r="F141">
-        <v>87490</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>0.008505989436999999</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0.011204747868600002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4229,7 +4232,7 @@
         <v>3</v>
       </c>
       <c r="B142" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-4NGW3NLCCC&amp;gtm=45je5b71v9102003320za200zd9102003320&amp;_p=1762814397651&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1675676192.1762814398&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527907~104528500~104684208~104684211~105391253~115583767~115616985~115938465~115938469~116217636~116217638&amp;sid=1762814397&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.ralingen.kommune.no%2F&amp;dt=Forside%20-%20R%C3%A6lingen%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=882</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-4NGW3NLCCC&amp;gtm=45je5bd0h2v9102003320za200zd9102003320&amp;_p=1763141067831&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=560776566.1763141068&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~105391252~115583767~115938465~115938469~116217636~116217638&amp;sid=1763141068&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.ralingen.kommune.no%2F&amp;dt=Forside%20-%20R%C3%A6lingen%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=943</v>
       </c>
       <c r="C142" t="str">
         <v>Fetch</v>
@@ -4261,16 +4264,16 @@
         <v>application/json</v>
       </c>
       <c r="E143">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="F143">
         <v>1987</v>
       </c>
       <c r="G143">
-        <v>0.00048740258799999993</v>
+        <v>0.0004847852709999999</v>
       </c>
       <c r="H143">
-        <v>0.0006420444264000001</v>
+        <v>0.0006385966938000002</v>
       </c>
     </row>
     <row r="144">
@@ -4287,16 +4290,16 @@
         <v>image/png</v>
       </c>
       <c r="E144">
-        <v>688571</v>
+        <v>688332</v>
       </c>
       <c r="F144">
         <v>687240</v>
       </c>
       <c r="G144">
-        <v>0.20024539822299997</v>
+        <v>0.20017589391599996</v>
       </c>
       <c r="H144">
-        <v>0.26377874267940005</v>
+        <v>0.26368718622480003</v>
       </c>
     </row>
     <row r="145">
@@ -4313,16 +4316,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E145">
-        <v>22290</v>
+        <v>22300</v>
       </c>
       <c r="F145">
         <v>21950</v>
       </c>
       <c r="G145">
-        <v>0.006482221769999999</v>
+        <v>0.0064851299</v>
       </c>
       <c r="H145">
-        <v>0.008538884406</v>
+        <v>0.00854271522</v>
       </c>
     </row>
     <row r="146">
@@ -4339,16 +4342,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E146">
-        <v>29766</v>
+        <v>29758</v>
       </c>
       <c r="F146">
         <v>29398</v>
       </c>
       <c r="G146">
-        <v>0.008656339757999999</v>
+        <v>0.008654013253999998</v>
       </c>
       <c r="H146">
-        <v>0.011402800952399997</v>
+        <v>0.011399736301200001</v>
       </c>
     </row>
     <row r="147">
@@ -4365,16 +4368,16 @@
         <v>image/png</v>
       </c>
       <c r="E147">
-        <v>154136</v>
+        <v>154359</v>
       </c>
       <c r="F147">
         <v>153641</v>
       </c>
       <c r="G147">
-        <v>0.044824752568</v>
+        <v>0.044889603867</v>
       </c>
       <c r="H147">
-        <v>0.0590466346704</v>
+        <v>0.0591320618226</v>
       </c>
     </row>
     <row r="148">
@@ -4469,16 +4472,16 @@
         <v>image/webp</v>
       </c>
       <c r="E151">
-        <v>1273902</v>
+        <v>1273879</v>
       </c>
       <c r="F151">
         <v>1271956</v>
       </c>
       <c r="G151">
-        <v>0.37046726232599997</v>
+        <v>0.37046057362699997</v>
       </c>
       <c r="H151">
-        <v>0.48800816162280003</v>
+        <v>0.4879993507506001</v>
       </c>
     </row>
   </sheetData>
@@ -4531,7 +4534,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>307761</v>
+        <v>307807</v>
       </c>
       <c r="D3">
         <v>1926255</v>
@@ -4545,10 +4548,10 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>1808224</v>
+        <v>1807891</v>
       </c>
       <c r="D4">
-        <v>6075007</v>
+        <v>6074419</v>
       </c>
     </row>
     <row r="5">
@@ -4559,10 +4562,10 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>265138</v>
+        <v>260538</v>
       </c>
       <c r="D5">
-        <v>1382134</v>
+        <v>1340364</v>
       </c>
     </row>
     <row r="6">
@@ -4573,10 +4576,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>43444</v>
+        <v>42847</v>
       </c>
       <c r="D6">
-        <v>69090</v>
+        <v>68505</v>
       </c>
     </row>
     <row r="7">
@@ -4587,7 +4590,7 @@
         <v>39</v>
       </c>
       <c r="C7">
-        <v>16214638</v>
+        <v>16214902</v>
       </c>
       <c r="D7">
         <v>16186233</v>
@@ -4601,10 +4604,10 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>1468149</v>
+        <v>1510170</v>
       </c>
       <c r="D8">
-        <v>1467552</v>
+        <v>1509564</v>
       </c>
     </row>
     <row r="9">
@@ -4668,13 +4671,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6750564</v>
+        <v>6763605</v>
       </c>
       <c r="C2">
-        <v>1.963151768532</v>
+        <v>1.9669442608649998</v>
       </c>
       <c r="D2">
-        <v>2.5860155079096003</v>
+        <v>2.5910112724470005</v>
       </c>
     </row>
     <row r="3">
@@ -4682,13 +4685,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6751643</v>
+        <v>6763113</v>
       </c>
       <c r="C3">
-        <v>1.9634655557589997</v>
+        <v>1.9668011808689998</v>
       </c>
       <c r="D3">
-        <v>2.5864288527402004</v>
+        <v>2.5908227963982</v>
       </c>
     </row>
     <row r="4">
@@ -4696,13 +4699,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6751676</v>
+        <v>6763966</v>
       </c>
       <c r="C4">
-        <v>1.9634751525879997</v>
+        <v>1.9670492443579997</v>
       </c>
       <c r="D4">
-        <v>2.5864414944264</v>
+        <v>2.5911495648324</v>
       </c>
     </row>
     <row r="5">
@@ -4710,13 +4713,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>6751643</v>
+        <v>6763605</v>
       </c>
       <c r="C5">
-        <v>1.9634655557589997</v>
+        <v>1.9669442608649998</v>
       </c>
       <c r="D5">
-        <v>2.5864288527402004</v>
+        <v>2.5910112724470005</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.ralingen.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.ralingen.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24002.454999999994</v>
+        <v>24111.256</v>
       </c>
       <c r="C2">
-        <v>8648.15</v>
+        <v>8472.017999999998</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>24693.789199999996</v>
+        <v>24814.948000000004</v>
       </c>
       <c r="F2">
-        <v>125.5</v>
+        <v>115.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8648.15</v>
+        <v>8472.017999999998</v>
       </c>
       <c r="I2">
         <v>56</v>
       </c>
       <c r="J2">
-        <v>6763605</v>
+        <v>6763783</v>
       </c>
       <c r="K2">
         <v>50</v>
@@ -480,34 +480,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23972.172999999995</v>
+        <v>22797.898513488773</v>
       </c>
       <c r="C3">
-        <v>8665.848999999998</v>
+        <v>8638.49</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>24677.084499999994</v>
+        <v>23499.016513488776</v>
       </c>
       <c r="F3">
-        <v>164.49999999999818</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8665.848999999998</v>
+        <v>8705.538192381377</v>
       </c>
       <c r="I3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3">
-        <v>6763113</v>
+        <v>6605515</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>24006.170499999993</v>
+        <v>24177.84000000001</v>
       </c>
       <c r="C4">
-        <v>8615.739</v>
+        <v>8655.913999999999</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>24717.895149999997</v>
+        <v>24874.201600000015</v>
       </c>
       <c r="F4">
-        <v>138</v>
+        <v>165.50000000000182</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8615.739</v>
+        <v>8655.913999999999</v>
       </c>
       <c r="I4">
         <v>55</v>
       </c>
       <c r="J4">
-        <v>6763966</v>
+        <v>6763332</v>
       </c>
       <c r="K4">
         <v>50</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>24002.454999999994</v>
+        <v>24111.256</v>
       </c>
       <c r="C5">
-        <v>8648.15</v>
+        <v>8638.49</v>
       </c>
       <c r="D5">
         <v>88</v>
       </c>
       <c r="E5">
-        <v>24693.789199999996</v>
+        <v>24814.948000000004</v>
       </c>
       <c r="F5">
-        <v>138</v>
+        <v>115.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8648.15</v>
+        <v>8655.913999999999</v>
       </c>
       <c r="I5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5">
-        <v>6763605</v>
+        <v>6763332</v>
       </c>
       <c r="K5">
         <v>50</v>
@@ -589,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,16 +738,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E6">
-        <v>24890</v>
+        <v>24894</v>
       </c>
       <c r="F6">
         <v>87333</v>
       </c>
       <c r="G6">
-        <v>0.007238335569999999</v>
+        <v>0.007239498821999999</v>
       </c>
       <c r="H6">
-        <v>0.009534896046000002</v>
+        <v>0.0095364283716</v>
       </c>
     </row>
     <row r="7">
@@ -894,16 +894,16 @@
         <v>application/json</v>
       </c>
       <c r="E12">
-        <v>2180</v>
+        <v>2275</v>
       </c>
       <c r="F12">
         <v>4250</v>
       </c>
       <c r="G12">
-        <v>0.0006339723399999998</v>
+        <v>0.0006615995749999999</v>
       </c>
       <c r="H12">
-        <v>0.0008351174520000001</v>
+        <v>0.000871510185</v>
       </c>
     </row>
     <row r="13">
@@ -920,16 +920,16 @@
         <v>text/css</v>
       </c>
       <c r="E13">
-        <v>1269</v>
+        <v>1223</v>
       </c>
       <c r="F13">
         <v>8733</v>
       </c>
       <c r="G13">
-        <v>0.00036904169699999995</v>
+        <v>0.00035566429899999995</v>
       </c>
       <c r="H13">
-        <v>0.0004861302966000001</v>
+        <v>0.00046850855220000005</v>
       </c>
     </row>
     <row r="14">
@@ -946,16 +946,16 @@
         <v>application/json</v>
       </c>
       <c r="E14">
-        <v>3822</v>
+        <v>3831</v>
       </c>
       <c r="F14">
         <v>10148</v>
       </c>
       <c r="G14">
-        <v>0.001111487286</v>
+        <v>0.0011141046029999999</v>
       </c>
       <c r="H14">
-        <v>0.0014641371108000002</v>
+        <v>0.0014675848434</v>
       </c>
     </row>
     <row r="15">
@@ -972,16 +972,16 @@
         <v>application/json</v>
       </c>
       <c r="E15">
-        <v>9578</v>
+        <v>9533</v>
       </c>
       <c r="F15">
         <v>43253</v>
       </c>
       <c r="G15">
-        <v>0.0027854069139999996</v>
+        <v>0.0027723203289999995</v>
       </c>
       <c r="H15">
-        <v>0.0036691536492000007</v>
+        <v>0.0036519149862000006</v>
       </c>
     </row>
     <row r="16">
@@ -998,16 +998,16 @@
         <v>application/json</v>
       </c>
       <c r="E16">
-        <v>3193</v>
+        <v>3166</v>
       </c>
       <c r="F16">
         <v>5437</v>
       </c>
       <c r="G16">
-        <v>0.0009285659089999998</v>
+        <v>0.0009207139579999999</v>
       </c>
       <c r="H16">
-        <v>0.0012231789102000001</v>
+        <v>0.0012128357124</v>
       </c>
     </row>
     <row r="17">
@@ -1356,16 +1356,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E30">
-        <v>145439</v>
+        <v>145438</v>
       </c>
       <c r="F30">
-        <v>426050</v>
+        <v>426053</v>
       </c>
       <c r="G30">
-        <v>0.042295551907</v>
+        <v>0.042295261093999996</v>
       </c>
       <c r="H30">
-        <v>0.05571497573460001</v>
+        <v>0.0557145926532</v>
       </c>
     </row>
     <row r="31">
@@ -1509,16 +1509,16 @@
         <v>application/json</v>
       </c>
       <c r="E36">
-        <v>5688</v>
+        <v>5673</v>
       </c>
       <c r="F36">
-        <v>5263</v>
+        <v>5259</v>
       </c>
       <c r="G36">
-        <v>0.0016541443439999997</v>
+        <v>0.0016497821489999999</v>
       </c>
       <c r="H36">
-        <v>0.0021789670032</v>
+        <v>0.0021732207822</v>
       </c>
     </row>
     <row r="37">
@@ -1535,16 +1535,16 @@
         <v>application/json</v>
       </c>
       <c r="E37">
-        <v>2281</v>
+        <v>2272</v>
       </c>
       <c r="F37">
         <v>3301</v>
       </c>
       <c r="G37">
-        <v>0.0006633444529999999</v>
+        <v>0.0006607271359999998</v>
       </c>
       <c r="H37">
-        <v>0.0008738086733999999</v>
+        <v>0.0008703609408</v>
       </c>
     </row>
     <row r="38">
@@ -1587,16 +1587,16 @@
         <v>application/json</v>
       </c>
       <c r="E39">
-        <v>13055</v>
+        <v>13064</v>
       </c>
       <c r="F39">
         <v>32820</v>
       </c>
       <c r="G39">
-        <v>0.0037965637149999995</v>
+        <v>0.0037991810319999994</v>
       </c>
       <c r="H39">
-        <v>0.0050011276770000005</v>
+        <v>0.005004575409600001</v>
       </c>
     </row>
     <row r="40">
@@ -1613,16 +1613,16 @@
         <v>application/json</v>
       </c>
       <c r="E40">
-        <v>3064</v>
+        <v>3082</v>
       </c>
       <c r="F40">
         <v>5490</v>
       </c>
       <c r="G40">
-        <v>0.0008910510319999999</v>
+        <v>0.0008962856659999999</v>
       </c>
       <c r="H40">
-        <v>0.0011737614096</v>
+        <v>0.0011806568748</v>
       </c>
     </row>
     <row r="41">
@@ -1639,16 +1639,16 @@
         <v>application/json</v>
       </c>
       <c r="E41">
-        <v>29124</v>
+        <v>29250</v>
       </c>
       <c r="F41">
         <v>87490</v>
       </c>
       <c r="G41">
-        <v>0.008469637811999999</v>
+        <v>0.008506280249999998</v>
       </c>
       <c r="H41">
-        <v>0.0111568626936</v>
+        <v>0.011205130950000001</v>
       </c>
     </row>
     <row r="42">
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-4NGW3NLCCC&amp;gtm=45je5bc1v9102003320za200zd9102003320&amp;_p=1763141040259&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1479310333.1763141040&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115583767~115616986~115938465~115938468~116194002~116217636~116217638&amp;sid=1763141040&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.ralingen.kommune.no%2F&amp;dt=Forside%20-%20R%C3%A6lingen%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=905</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-4NGW3NLCCC&amp;gtm=45je5bc1v9102003320za200zd9102003320&amp;_p=1763143455582&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=2047068966.1763143456&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115938466~115938468~116217636~116217638~116251935~116251937~116474637&amp;sid=1763143455&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.ralingen.kommune.no%2F&amp;dt=Forside%20-%20R%C3%A6lingen%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=895</v>
       </c>
       <c r="C42" t="str">
         <v>Fetch</v>
@@ -1714,16 +1714,16 @@
         <v>image/png</v>
       </c>
       <c r="E44">
-        <v>688544</v>
+        <v>688562</v>
       </c>
       <c r="F44">
         <v>687240</v>
       </c>
       <c r="G44">
-        <v>0.200237546272</v>
+        <v>0.20024278090599998</v>
       </c>
       <c r="H44">
-        <v>0.2637683994816001</v>
+        <v>0.2637752949468</v>
       </c>
     </row>
     <row r="45">
@@ -1740,16 +1740,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E45">
-        <v>22299</v>
+        <v>22308</v>
       </c>
       <c r="F45">
         <v>21950</v>
       </c>
       <c r="G45">
-        <v>0.006484839086999999</v>
+        <v>0.006487456403999999</v>
       </c>
       <c r="H45">
-        <v>0.0085423321386</v>
+        <v>0.008545779871200001</v>
       </c>
     </row>
     <row r="46">
@@ -1766,16 +1766,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E46">
-        <v>29766</v>
+        <v>29758</v>
       </c>
       <c r="F46">
         <v>29398</v>
       </c>
       <c r="G46">
-        <v>0.008656339757999999</v>
+        <v>0.008654013253999998</v>
       </c>
       <c r="H46">
-        <v>0.011402800952399997</v>
+        <v>0.011399736301200001</v>
       </c>
     </row>
     <row r="47">
@@ -1896,16 +1896,16 @@
         <v>image/webp</v>
       </c>
       <c r="E51">
-        <v>1273861</v>
+        <v>1273902</v>
       </c>
       <c r="F51">
         <v>1271956</v>
       </c>
       <c r="G51">
-        <v>0.3704553389929999</v>
+        <v>0.37046726232599997</v>
       </c>
       <c r="H51">
-        <v>0.48799245528540003</v>
+        <v>0.48800816162280003</v>
       </c>
     </row>
     <row r="52">
@@ -2026,16 +2026,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E56">
-        <v>24890</v>
+        <v>24894</v>
       </c>
       <c r="F56">
         <v>87333</v>
       </c>
       <c r="G56">
-        <v>0.007238335569999999</v>
+        <v>0.007239498821999999</v>
       </c>
       <c r="H56">
-        <v>0.009534896046000002</v>
+        <v>0.0095364283716</v>
       </c>
     </row>
     <row r="57">
@@ -2052,16 +2052,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E57">
-        <v>24970</v>
+        <v>24973</v>
       </c>
       <c r="F57">
         <v>72380</v>
       </c>
       <c r="G57">
-        <v>0.007261600609999998</v>
+        <v>0.007262473048999999</v>
       </c>
       <c r="H57">
-        <v>0.009565542558000002</v>
+        <v>0.009566691802200001</v>
       </c>
     </row>
     <row r="58">
@@ -2127,19 +2127,16 @@
         <v>Fetch</v>
       </c>
       <c r="D60" t="str">
-        <v>application/json</v>
+        <v/>
       </c>
       <c r="E60">
-        <v>1066</v>
-      </c>
-      <c r="F60">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.00031000665799999996</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0.0004083647724000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2182,16 +2179,16 @@
         <v>application/json</v>
       </c>
       <c r="E62">
-        <v>2171</v>
+        <v>2670</v>
       </c>
       <c r="F62">
         <v>4250</v>
       </c>
       <c r="G62">
-        <v>0.0006313550229999999</v>
+        <v>0.0007764707099999999</v>
       </c>
       <c r="H62">
-        <v>0.0008316697194000002</v>
+        <v>0.0010228273380000002</v>
       </c>
     </row>
     <row r="63">
@@ -2208,16 +2205,16 @@
         <v>text/css</v>
       </c>
       <c r="E63">
-        <v>1223</v>
+        <v>1269</v>
       </c>
       <c r="F63">
         <v>8733</v>
       </c>
       <c r="G63">
-        <v>0.00035566429899999995</v>
+        <v>0.00036904169699999995</v>
       </c>
       <c r="H63">
-        <v>0.00046850855220000005</v>
+        <v>0.0004861302966000001</v>
       </c>
     </row>
     <row r="64">
@@ -2234,16 +2231,16 @@
         <v>application/json</v>
       </c>
       <c r="E64">
-        <v>3696</v>
+        <v>3840</v>
       </c>
       <c r="F64">
         <v>10148</v>
       </c>
       <c r="G64">
-        <v>0.0010748448479999998</v>
+        <v>0.0011167219199999998</v>
       </c>
       <c r="H64">
-        <v>0.0014158688544000002</v>
+        <v>0.001471032576</v>
       </c>
     </row>
     <row r="65">
@@ -2260,16 +2257,16 @@
         <v>application/json</v>
       </c>
       <c r="E65">
-        <v>9443</v>
+        <v>9570</v>
       </c>
       <c r="F65">
         <v>43253</v>
       </c>
       <c r="G65">
-        <v>0.002746147159</v>
+        <v>0.0027830804099999995</v>
       </c>
       <c r="H65">
-        <v>0.003617437660199999</v>
+        <v>0.003666088998</v>
       </c>
     </row>
     <row r="66">
@@ -2283,19 +2280,16 @@
         <v>XHR</v>
       </c>
       <c r="D66" t="str">
-        <v>application/json</v>
+        <v/>
       </c>
       <c r="E66">
-        <v>3058</v>
-      </c>
-      <c r="F66">
-        <v>5437</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.0008893061539999999</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0.0011714629212000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2358,22 +2352,19 @@
         <v>https://view.rekai.se/view</v>
       </c>
       <c r="C69" t="str">
-        <v>Fetch</v>
+        <v>Preflight</v>
       </c>
       <c r="D69" t="str">
-        <v>application/json</v>
+        <v>text/html</v>
       </c>
       <c r="E69">
-        <v>191</v>
-      </c>
-      <c r="F69">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.00005554528299999999</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0.0000731685474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,7 +2375,7 @@
         <v>https://view.rekai.se/view</v>
       </c>
       <c r="C70" t="str">
-        <v>Preflight</v>
+        <v>Fetch</v>
       </c>
       <c r="D70" t="str">
         <v/>
@@ -2583,25 +2574,25 @@
         <v>2</v>
       </c>
       <c r="B78" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles/d56590f9-282c-4605-8446-f9152a30bc1d?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;language=nb_no&amp;includeCategories=true&amp;getRecursiveContent=true</v>
+        <v>https://www.ralingen.kommune.no/images/ralingen/kommunevaapen.svg</v>
       </c>
       <c r="C78" t="str">
-        <v>Fetch</v>
+        <v>Other</v>
       </c>
       <c r="D78" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E78">
-        <v>2427</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>3213</v>
+        <v>1626</v>
       </c>
       <c r="G78">
-        <v>0.0007058031509999999</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0.0009297385578000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2609,25 +2600,25 @@
         <v>2</v>
       </c>
       <c r="B79" t="str">
-        <v>https://www.ralingen.kommune.no/images/ralingen/kommunevaapen.svg</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles/d56590f9-282c-4605-8446-f9152a30bc1d?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;language=nb_no&amp;includeCategories=true&amp;getRecursiveContent=true</v>
       </c>
       <c r="C79" t="str">
-        <v>Other</v>
+        <v>Fetch</v>
       </c>
       <c r="D79" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2292</v>
       </c>
       <c r="F79">
-        <v>1626</v>
+        <v>3213</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>0.000666543396</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>0.0008780225687999999</v>
       </c>
     </row>
     <row r="80">
@@ -2635,25 +2626,22 @@
         <v>2</v>
       </c>
       <c r="B80" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-4NGW3NLCCC</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;category=ff373347-8373-4c64-b528-689f77fcd395&amp;contentTypes=5be9ba0d-3682-4493-9587-306a99911bf3,8ee596e3-98cc-43e0-b785-96cc6325773c,93847071-c959-4ce5-a79a-686af7dbd419,e662f30f-ecd9-4974-8657-35b726365572,09ceb3f2-3b86-4a5f-a823-16c6210982bc,a72e7e73-1864-46ee-adba-814d05b51d9e,fd54728e-1956-433b-a33b-a7f95023dd37,1bb71f41-4ee6-4394-b78f-3202e2f5eeda&amp;language=nb_no&amp;limit=12&amp;offset=0&amp;includeCategories=true&amp;getRecursiveContent=true&amp;LanguageMode=Strict</v>
       </c>
       <c r="C80" t="str">
-        <v>Script</v>
+        <v>Preflight</v>
       </c>
       <c r="D80" t="str">
-        <v>application/javascript</v>
+        <v/>
       </c>
       <c r="E80">
-        <v>145454</v>
-      </c>
-      <c r="F80">
-        <v>426077</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.042299914102</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0.0557207219556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2661,25 +2649,25 @@
         <v>2</v>
       </c>
       <c r="B81" t="str">
-        <v>https://www.ralingen.kommune.no/images/some/facebook.svg</v>
+        <v>https://predict.rekai.se/predict?mb=1&amp;vt=2&amp;v30=1&amp;dlv=30&amp;p=13371520&amp;ubl=en-GB&amp;nr=6&amp;addcontent=true&amp;pl=nb&amp;currentp=%2F&amp;currentid=%2F&amp;pn=Forside%20-%20R%C3%A6lingen%20kommune&amp;p0=%2F</v>
       </c>
       <c r="C81" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D81" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E81">
-        <v>1406</v>
+        <v>5674</v>
       </c>
       <c r="F81">
-        <v>655</v>
+        <v>5259</v>
       </c>
       <c r="G81">
-        <v>0.000408883078</v>
+        <v>0.0016500729619999997</v>
       </c>
       <c r="H81">
-        <v>0.0005386124484</v>
+        <v>0.0021736038636</v>
       </c>
     </row>
     <row r="82">
@@ -2687,25 +2675,25 @@
         <v>2</v>
       </c>
       <c r="B82" t="str">
-        <v>https://www.ralingen.kommune.no/images/some/instagram.svg</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=17c15981-758d-4d09-a7ee-b2d47d2af6f0%20%20%20%20%20%20&amp;limit=1&amp;offset=0&amp;sortOrder=Published&amp;language=nb_no</v>
       </c>
       <c r="C82" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D82" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E82">
-        <v>2967</v>
+        <v>2146</v>
       </c>
       <c r="F82">
-        <v>2215</v>
+        <v>3301</v>
       </c>
       <c r="G82">
-        <v>0.0008628421709999999</v>
+        <v>0.0006240846979999999</v>
       </c>
       <c r="H82">
-        <v>0.0011366025138000002</v>
+        <v>0.0008220926844000001</v>
       </c>
     </row>
     <row r="83">
@@ -2713,25 +2701,25 @@
         <v>2</v>
       </c>
       <c r="B83" t="str">
-        <v>https://www.ralingen.kommune.no/images/some/linkedin.svg</v>
+        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=2390&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=&amp;Kunde=ralingen&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=&amp;Distributor=</v>
       </c>
       <c r="C83" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D83" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E83">
-        <v>1238</v>
+        <v>22206</v>
       </c>
       <c r="F83">
-        <v>487</v>
+        <v>266424</v>
       </c>
       <c r="G83">
-        <v>0.000360026494</v>
+        <v>0.006457793477999999</v>
       </c>
       <c r="H83">
-        <v>0.0004742547732</v>
+        <v>0.0085067055684</v>
       </c>
     </row>
     <row r="84">
@@ -2739,22 +2727,25 @@
         <v>2</v>
       </c>
       <c r="B84" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;category=ff373347-8373-4c64-b528-689f77fcd395&amp;contentTypes=5be9ba0d-3682-4493-9587-306a99911bf3,8ee596e3-98cc-43e0-b785-96cc6325773c,93847071-c959-4ce5-a79a-686af7dbd419,e662f30f-ecd9-4974-8657-35b726365572,09ceb3f2-3b86-4a5f-a823-16c6210982bc,a72e7e73-1864-46ee-adba-814d05b51d9e,fd54728e-1956-433b-a33b-a7f95023dd37,1bb71f41-4ee6-4394-b78f-3202e2f5eeda&amp;language=nb_no&amp;limit=12&amp;offset=0&amp;includeCategories=true&amp;getRecursiveContent=true&amp;LanguageMode=Strict</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=73da834a-d2cf-4659-ab23-760986ecbfde&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=3&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
       </c>
       <c r="C84" t="str">
-        <v>Preflight</v>
+        <v>Fetch</v>
       </c>
       <c r="D84" t="str">
-        <v/>
+        <v>application/json</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>12903</v>
+      </c>
+      <c r="F84">
+        <v>32820</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>0.0037523601389999996</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>0.0049428993042</v>
       </c>
     </row>
     <row r="85">
@@ -2762,25 +2753,25 @@
         <v>2</v>
       </c>
       <c r="B85" t="str">
-        <v>https://www.ralingen.kommune.no/images/ralingen/symbol-cluster.svg</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=4e159a34-1e45-413f-b053-a2bd9f843121&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=1&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
       </c>
       <c r="C85" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D85" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E85">
-        <v>1794</v>
+        <v>2947</v>
       </c>
       <c r="F85">
-        <v>1042</v>
+        <v>5490</v>
       </c>
       <c r="G85">
-        <v>0.000521718522</v>
+        <v>0.0008570259109999999</v>
       </c>
       <c r="H85">
-        <v>0.0006872480316000001</v>
+        <v>0.0011289408858</v>
       </c>
     </row>
     <row r="86">
@@ -2788,25 +2779,25 @@
         <v>2</v>
       </c>
       <c r="B86" t="str">
-        <v>https://predict.rekai.se/predict?mb=1&amp;vt=2&amp;v30=1&amp;dlv=30&amp;p=13371520&amp;ubl=en-GB&amp;nr=6&amp;addcontent=true&amp;pl=nb&amp;currentp=%2F&amp;currentid=%2F&amp;pn=Forside%20-%20R%C3%A6lingen%20kommune&amp;p0=%2F</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;category=ff373347-8373-4c64-b528-689f77fcd395&amp;contentTypes=5be9ba0d-3682-4493-9587-306a99911bf3,8ee596e3-98cc-43e0-b785-96cc6325773c,93847071-c959-4ce5-a79a-686af7dbd419,e662f30f-ecd9-4974-8657-35b726365572,09ceb3f2-3b86-4a5f-a823-16c6210982bc,a72e7e73-1864-46ee-adba-814d05b51d9e,fd54728e-1956-433b-a33b-a7f95023dd37,1bb71f41-4ee6-4394-b78f-3202e2f5eeda&amp;language=nb_no&amp;limit=12&amp;offset=0&amp;includeCategories=true&amp;getRecursiveContent=true&amp;LanguageMode=Strict</v>
       </c>
       <c r="C86" t="str">
-        <v>XHR</v>
+        <v>Fetch</v>
       </c>
       <c r="D86" t="str">
         <v>application/json</v>
       </c>
       <c r="E86">
-        <v>5677</v>
+        <v>29125</v>
       </c>
       <c r="F86">
-        <v>5263</v>
+        <v>87490</v>
       </c>
       <c r="G86">
-        <v>0.0016509454009999997</v>
+        <v>0.008469928624999998</v>
       </c>
       <c r="H86">
-        <v>0.0021747531078000005</v>
+        <v>0.011157245775000001</v>
       </c>
     </row>
     <row r="87">
@@ -2814,25 +2805,25 @@
         <v>2</v>
       </c>
       <c r="B87" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=17c15981-758d-4d09-a7ee-b2d47d2af6f0%20%20%20%20%20%20&amp;limit=1&amp;offset=0&amp;sortOrder=Published&amp;language=nb_no</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/PublicContentApi/find/0c35ff6a-72df-48ec-a0bf-f61e723d5bdb</v>
       </c>
       <c r="C87" t="str">
-        <v>Fetch</v>
+        <v>XHR</v>
       </c>
       <c r="D87" t="str">
         <v>application/json</v>
       </c>
       <c r="E87">
-        <v>2290</v>
+        <v>1550</v>
       </c>
       <c r="F87">
-        <v>3301</v>
+        <v>1987</v>
       </c>
       <c r="G87">
-        <v>0.0006659617699999999</v>
+        <v>0.0004507601499999999</v>
       </c>
       <c r="H87">
-        <v>0.0008772564060000001</v>
+        <v>0.00059377617</v>
       </c>
     </row>
     <row r="88">
@@ -2840,25 +2831,25 @@
         <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=2390&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=&amp;Kunde=ralingen&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=&amp;Distributor=</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,ar_1:1/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/36b2b854-33e7-4090-a120-8ebad1791c42.png</v>
       </c>
       <c r="C88" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D88" t="str">
-        <v>application/json</v>
+        <v>image/png</v>
       </c>
       <c r="E88">
-        <v>22206</v>
+        <v>688571</v>
       </c>
       <c r="F88">
-        <v>266424</v>
+        <v>687240</v>
       </c>
       <c r="G88">
-        <v>0.006457793477999999</v>
+        <v>0.20024539822299997</v>
       </c>
       <c r="H88">
-        <v>0.0085067055684</v>
+        <v>0.26377874267940005</v>
       </c>
     </row>
     <row r="89">
@@ -2866,25 +2857,25 @@
         <v>2</v>
       </c>
       <c r="B89" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=73da834a-d2cf-4659-ab23-760986ecbfde&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=3&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/733decd9-bb39-4b19-8b3a-3ff51c290e27.jpg</v>
       </c>
       <c r="C89" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D89" t="str">
-        <v>application/json</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E89">
-        <v>13064</v>
+        <v>22309</v>
       </c>
       <c r="F89">
-        <v>32820</v>
+        <v>21950</v>
       </c>
       <c r="G89">
-        <v>0.0037991810319999994</v>
+        <v>0.006487747217</v>
       </c>
       <c r="H89">
-        <v>0.005004575409600001</v>
+        <v>0.0085461629526</v>
       </c>
     </row>
     <row r="90">
@@ -2892,25 +2883,25 @@
         <v>2</v>
       </c>
       <c r="B90" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=4e159a34-1e45-413f-b053-a2bd9f843121&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=1&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/be02a550-ef55-4124-b758-b14d8aa3a61b.jpg</v>
       </c>
       <c r="C90" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D90" t="str">
-        <v>application/json</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E90">
-        <v>3073</v>
+        <v>29749</v>
       </c>
       <c r="F90">
-        <v>5490</v>
+        <v>29398</v>
       </c>
       <c r="G90">
-        <v>0.0008936683489999998</v>
+        <v>0.008651395937</v>
       </c>
       <c r="H90">
-        <v>0.0011772091422</v>
+        <v>0.011396288568600001</v>
       </c>
     </row>
     <row r="91">
@@ -2918,25 +2909,25 @@
         <v>2</v>
       </c>
       <c r="B91" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;category=ff373347-8373-4c64-b528-689f77fcd395&amp;contentTypes=5be9ba0d-3682-4493-9587-306a99911bf3,8ee596e3-98cc-43e0-b785-96cc6325773c,93847071-c959-4ce5-a79a-686af7dbd419,e662f30f-ecd9-4974-8657-35b726365572,09ceb3f2-3b86-4a5f-a823-16c6210982bc,a72e7e73-1864-46ee-adba-814d05b51d9e,fd54728e-1956-433b-a33b-a7f95023dd37,1bb71f41-4ee6-4394-b78f-3202e2f5eeda&amp;language=nb_no&amp;limit=12&amp;offset=0&amp;includeCategories=true&amp;getRecursiveContent=true&amp;LanguageMode=Strict</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/956be889-02c4-47b1-8af0-810f58ba7ed1.png</v>
       </c>
       <c r="C91" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D91" t="str">
-        <v>application/json</v>
+        <v>image/png</v>
       </c>
       <c r="E91">
-        <v>29142</v>
+        <v>154136</v>
       </c>
       <c r="F91">
-        <v>87490</v>
+        <v>153641</v>
       </c>
       <c r="G91">
-        <v>0.008474872445999999</v>
+        <v>0.044824752568</v>
       </c>
       <c r="H91">
-        <v>0.0111637581588</v>
+        <v>0.0590466346704</v>
       </c>
     </row>
     <row r="92">
@@ -2944,22 +2935,25 @@
         <v>2</v>
       </c>
       <c r="B92" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-4NGW3NLCCC&amp;gtm=45je5bc1v9102003320za200zd9102003320&amp;_p=1763141053844&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1362390169.1763141054&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115938465~115938468~116194002~116217636~116217638~116251938~116251940&amp;sid=1763141053&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.ralingen.kommune.no%2F&amp;dt=Forside%20-%20R%C3%A6lingen%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=885</v>
+        <v>https://aimblob.blob.core.windows.net/aimfiles/836aff4b-2951-489e-bd44-5ee7d66ee7dc.jpg</v>
       </c>
       <c r="C92" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D92" t="str">
-        <v>text/plain</v>
+        <v>application/octet-stream</v>
       </c>
       <c r="E92">
-        <v>554</v>
+        <v>1931986</v>
+      </c>
+      <c r="F92">
+        <v>1931532</v>
       </c>
       <c r="G92">
-        <v>0.00016111040199999997</v>
+        <v>0.5618466446179999</v>
       </c>
       <c r="H92">
-        <v>0.0002122270956</v>
+        <v>0.7401079016604001</v>
       </c>
     </row>
     <row r="93">
@@ -2967,25 +2961,25 @@
         <v>2</v>
       </c>
       <c r="B93" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/PublicContentApi/find/0c35ff6a-72df-48ec-a0bf-f61e723d5bdb</v>
+        <v>https://aimblob.blob.core.windows.net/aimfiles/3f35ddfc-a484-4118-92af-adaa45a8cd89.jpg</v>
       </c>
       <c r="C93" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D93" t="str">
-        <v>application/json</v>
+        <v>application/octet-stream</v>
       </c>
       <c r="E93">
-        <v>1667</v>
+        <v>961362</v>
       </c>
       <c r="F93">
-        <v>1987</v>
+        <v>960909</v>
       </c>
       <c r="G93">
-        <v>0.0004847852709999999</v>
+        <v>0.27957656730599995</v>
       </c>
       <c r="H93">
-        <v>0.0006385966938000002</v>
+        <v>0.3682799008668</v>
       </c>
     </row>
     <row r="94">
@@ -2993,25 +2987,25 @@
         <v>2</v>
       </c>
       <c r="B94" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,ar_1:1/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/36b2b854-33e7-4090-a120-8ebad1791c42.png</v>
+        <v>https://aimblob.blob.core.windows.net/aimfiles/69b21600-a44c-48e7-bb8a-5c1cde1610da.jpg</v>
       </c>
       <c r="C94" t="str">
         <v>Image</v>
       </c>
       <c r="D94" t="str">
-        <v>image/png</v>
+        <v>application/octet-stream</v>
       </c>
       <c r="E94">
-        <v>688322</v>
+        <v>330721</v>
       </c>
       <c r="F94">
-        <v>687240</v>
+        <v>330268</v>
       </c>
       <c r="G94">
-        <v>0.20017298578599999</v>
+        <v>0.09617796617299998</v>
       </c>
       <c r="H94">
-        <v>0.2636833554108</v>
+        <v>0.12669306368940003</v>
       </c>
     </row>
     <row r="95">
@@ -3019,181 +3013,181 @@
         <v>2</v>
       </c>
       <c r="B95" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/733decd9-bb39-4b19-8b3a-3ff51c290e27.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/g_auto,c_fill,f_auto/https://aimblob.blob.core.windows.net/aimfiles/0c35ff6a-72df-48ec-a0bf-f61e723d5bdb.png</v>
       </c>
       <c r="C95" t="str">
         <v>Image</v>
       </c>
       <c r="D95" t="str">
-        <v>image/jpeg</v>
+        <v>image/webp</v>
       </c>
       <c r="E95">
-        <v>22290</v>
+        <v>1273878</v>
       </c>
       <c r="F95">
-        <v>21950</v>
+        <v>1271956</v>
       </c>
       <c r="G95">
-        <v>0.006482221769999999</v>
+        <v>0.37046028281399995</v>
       </c>
       <c r="H95">
-        <v>0.008538884406</v>
+        <v>0.48799896766920003</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B96" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/be02a550-ef55-4124-b758-b14d8aa3a61b.jpg</v>
+        <v>https://www.ralingen.kommune.no/</v>
       </c>
       <c r="C96" t="str">
-        <v>Image</v>
+        <v>Document</v>
       </c>
       <c r="D96" t="str">
-        <v>image/jpeg</v>
+        <v>text/html</v>
       </c>
       <c r="E96">
-        <v>29989</v>
+        <v>46465</v>
       </c>
       <c r="F96">
-        <v>29398</v>
+        <v>181457</v>
       </c>
       <c r="G96">
-        <v>0.008721191057</v>
+        <v>0.013512626044999998</v>
       </c>
       <c r="H96">
-        <v>0.0114882281046</v>
+        <v>0.017799877251000004</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B97" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/956be889-02c4-47b1-8af0-810f58ba7ed1.png</v>
+        <v>https://fonts.googleapis.com/css2?family=Material+Icons+Outlined</v>
       </c>
       <c r="C97" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D97" t="str">
-        <v>image/png</v>
+        <v>text/css</v>
       </c>
       <c r="E97">
-        <v>154144</v>
+        <v>839</v>
       </c>
       <c r="F97">
-        <v>153641</v>
+        <v>622</v>
       </c>
       <c r="G97">
-        <v>0.044827079071999995</v>
+        <v>0.00024399210699999996</v>
       </c>
       <c r="H97">
-        <v>0.059049699321599994</v>
+        <v>0.00032140529459999997</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B98" t="str">
-        <v>https://aimblob.blob.core.windows.net/aimfiles/836aff4b-2951-489e-bd44-5ee7d66ee7dc.jpg</v>
+        <v>https://www.ralingen.kommune.no/main-1.4.122.css</v>
       </c>
       <c r="C98" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D98" t="str">
-        <v>application/octet-stream</v>
+        <v>text/css</v>
       </c>
       <c r="E98">
-        <v>1931986</v>
+        <v>100525</v>
       </c>
       <c r="F98">
-        <v>1931532</v>
+        <v>632730</v>
       </c>
       <c r="G98">
-        <v>0.5618466446179999</v>
+        <v>0.029233976824999994</v>
       </c>
       <c r="H98">
-        <v>0.7401079016604001</v>
+        <v>0.038509257735</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B99" t="str">
-        <v>https://aimblob.blob.core.windows.net/aimfiles/3f35ddfc-a484-4118-92af-adaa45a8cd89.jpg</v>
+        <v>https://umami.backstage.prokom.no/script.js</v>
       </c>
       <c r="C99" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D99" t="str">
-        <v>application/octet-stream</v>
+        <v>application/javascript</v>
       </c>
       <c r="E99">
-        <v>961362</v>
+        <v>1796</v>
       </c>
       <c r="F99">
-        <v>960909</v>
+        <v>2522</v>
       </c>
       <c r="G99">
-        <v>0.27957656730599995</v>
+        <v>0.000522300148</v>
       </c>
       <c r="H99">
-        <v>0.3682799008668</v>
+        <v>0.0006880141944000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B100" t="str">
-        <v>https://aimblob.blob.core.windows.net/aimfiles/69b21600-a44c-48e7-bb8a-5c1cde1610da.jpg</v>
+        <v>https://static.rek.ai/1d2a3c95.js</v>
       </c>
       <c r="C100" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D100" t="str">
-        <v>application/octet-stream</v>
+        <v>application/javascript</v>
       </c>
       <c r="E100">
-        <v>330721</v>
+        <v>24894</v>
       </c>
       <c r="F100">
-        <v>330268</v>
+        <v>87333</v>
       </c>
       <c r="G100">
-        <v>0.09617796617299998</v>
+        <v>0.007239498821999999</v>
       </c>
       <c r="H100">
-        <v>0.12669306368940003</v>
+        <v>0.0095364283716</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B101" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/g_auto,c_fill,f_auto/https://aimblob.blob.core.windows.net/aimfiles/0c35ff6a-72df-48ec-a0bf-f61e723d5bdb.png</v>
+        <v>https://code.jquery.com/jquery-3.5.1.slim.min.js</v>
       </c>
       <c r="C101" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D101" t="str">
-        <v>image/webp</v>
+        <v>application/javascript</v>
       </c>
       <c r="E101">
-        <v>1273888</v>
+        <v>24970</v>
       </c>
       <c r="F101">
-        <v>1271956</v>
+        <v>72380</v>
       </c>
       <c r="G101">
-        <v>0.370463190944</v>
+        <v>0.007261600609999998</v>
       </c>
       <c r="H101">
-        <v>0.48800279848320005</v>
+        <v>0.009565542558000002</v>
       </c>
     </row>
     <row r="102">
@@ -3201,25 +3195,25 @@
         <v>3</v>
       </c>
       <c r="B102" t="str">
-        <v>https://www.ralingen.kommune.no/</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/kariSvgAnimator/dist/kariSvgAnimator.min.js</v>
       </c>
       <c r="C102" t="str">
-        <v>Document</v>
+        <v>Script</v>
       </c>
       <c r="D102" t="str">
-        <v>text/html</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E102">
-        <v>46465</v>
+        <v>31467</v>
       </c>
       <c r="F102">
-        <v>181457</v>
+        <v>100355</v>
       </c>
       <c r="G102">
-        <v>0.013512626044999998</v>
+        <v>0.009151012670999999</v>
       </c>
       <c r="H102">
-        <v>0.017799877251000004</v>
+        <v>0.012054422413800002</v>
       </c>
     </row>
     <row r="103">
@@ -3227,25 +3221,25 @@
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Material+Icons+Outlined</v>
+        <v>https://www.ralingen.kommune.no/main-1.4.122.min.js</v>
       </c>
       <c r="C103" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D103" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E103">
-        <v>839</v>
+        <v>373974</v>
       </c>
       <c r="F103">
-        <v>622</v>
+        <v>1335851</v>
       </c>
       <c r="G103">
-        <v>0.00024399210699999996</v>
+        <v>0.10875650086199999</v>
       </c>
       <c r="H103">
-        <v>0.00032140529459999997</v>
+        <v>0.14326248348360002</v>
       </c>
     </row>
     <row r="104">
@@ -3253,25 +3247,25 @@
         <v>3</v>
       </c>
       <c r="B104" t="str">
-        <v>https://www.ralingen.kommune.no/main-1.4.122.css</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/version</v>
       </c>
       <c r="C104" t="str">
-        <v>Stylesheet</v>
+        <v>Fetch</v>
       </c>
       <c r="D104" t="str">
-        <v>text/css</v>
+        <v>application/json</v>
       </c>
       <c r="E104">
-        <v>100525</v>
+        <v>1192</v>
       </c>
       <c r="F104">
-        <v>632730</v>
+        <v>109</v>
       </c>
       <c r="G104">
-        <v>0.029233976824999994</v>
+        <v>0.000346649096</v>
       </c>
       <c r="H104">
-        <v>0.038509257735</v>
+        <v>0.00045663302879999995</v>
       </c>
     </row>
     <row r="105">
@@ -3279,25 +3273,25 @@
         <v>3</v>
       </c>
       <c r="B105" t="str">
-        <v>https://umami.backstage.prokom.no/script.js</v>
+        <v>https://o4508376266309632.ingest.de.sentry.io/api/4508376494702672/envelope/?sentry_version=7&amp;sentry_key=d7c584aa121c14d7f88ef8696ed17cde&amp;sentry_client=sentry.javascript.browser%2F10.20.0</v>
       </c>
       <c r="C105" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D105" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E105">
-        <v>1796</v>
+        <v>300</v>
       </c>
       <c r="F105">
-        <v>2522</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>0.000522300148</v>
+        <v>0.00008724389999999999</v>
       </c>
       <c r="H105">
-        <v>0.0006880141944000001</v>
+        <v>0.00011492442</v>
       </c>
     </row>
     <row r="106">
@@ -3305,25 +3299,25 @@
         <v>3</v>
       </c>
       <c r="B106" t="str">
-        <v>https://static.rek.ai/1d2a3c95.js</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/AdminApi/getredirects/9e9c6fdc-4e72-4750-b7ad-78dec31d7df8</v>
       </c>
       <c r="C106" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D106" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E106">
-        <v>24890</v>
+        <v>2063</v>
       </c>
       <c r="F106">
-        <v>87333</v>
+        <v>4250</v>
       </c>
       <c r="G106">
-        <v>0.007238335569999999</v>
+        <v>0.0005999472189999999</v>
       </c>
       <c r="H106">
-        <v>0.009534896046000002</v>
+        <v>0.0007902969282000002</v>
       </c>
     </row>
     <row r="107">
@@ -3331,25 +3325,25 @@
         <v>3</v>
       </c>
       <c r="B107" t="str">
-        <v>https://code.jquery.com/jquery-3.5.1.slim.min.js</v>
+        <v>https://fonts.googleapis.com/css?family=Material+Icons+Outlined%7CMaterial+Symbols+Outlined%7CSource+Sans+Pro:400,500,600,700</v>
       </c>
       <c r="C107" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D107" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E107">
-        <v>24970</v>
+        <v>1223</v>
       </c>
       <c r="F107">
-        <v>72380</v>
+        <v>8733</v>
       </c>
       <c r="G107">
-        <v>0.007261600609999998</v>
+        <v>0.00035566429899999995</v>
       </c>
       <c r="H107">
-        <v>0.009565542558000002</v>
+        <v>0.00046850855220000005</v>
       </c>
     </row>
     <row r="108">
@@ -3357,25 +3351,25 @@
         <v>3</v>
       </c>
       <c r="B108" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/kariSvgAnimator/dist/kariSvgAnimator.min.js</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;pageType=mal_beredskap&amp;language=nb_no</v>
       </c>
       <c r="C108" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D108" t="str">
-        <v>application/x-javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E108">
-        <v>31467</v>
+        <v>3714</v>
       </c>
       <c r="F108">
-        <v>100355</v>
+        <v>10148</v>
       </c>
       <c r="G108">
-        <v>0.009151012670999999</v>
+        <v>0.0010800794819999999</v>
       </c>
       <c r="H108">
-        <v>0.012054422413800002</v>
+        <v>0.0014227643196000005</v>
       </c>
     </row>
     <row r="109">
@@ -3383,25 +3377,25 @@
         <v>3</v>
       </c>
       <c r="B109" t="str">
-        <v>https://www.ralingen.kommune.no/main-1.4.122.min.js</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/PublicContentApi/menucategory/9e9c6fdc-4e72-4750-b7ad-78dec31d7df8</v>
       </c>
       <c r="C109" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D109" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E109">
-        <v>373974</v>
+        <v>9416</v>
       </c>
       <c r="F109">
-        <v>1335851</v>
+        <v>43253</v>
       </c>
       <c r="G109">
-        <v>0.10875650086199999</v>
+        <v>0.0027382952079999996</v>
       </c>
       <c r="H109">
-        <v>0.14326248348360002</v>
+        <v>0.0036070944623999997</v>
       </c>
     </row>
     <row r="110">
@@ -3409,25 +3403,25 @@
         <v>3</v>
       </c>
       <c r="B110" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/version</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles/36b375b5-8aca-4519-886f-b6291770589b?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;language=nb_no&amp;includeCategories=true&amp;getRecursiveContent=true</v>
       </c>
       <c r="C110" t="str">
-        <v>Fetch</v>
+        <v>XHR</v>
       </c>
       <c r="D110" t="str">
         <v>application/json</v>
       </c>
       <c r="E110">
-        <v>1192</v>
+        <v>3058</v>
       </c>
       <c r="F110">
-        <v>109</v>
+        <v>5437</v>
       </c>
       <c r="G110">
-        <v>0.000346649096</v>
+        <v>0.0008893061539999999</v>
       </c>
       <c r="H110">
-        <v>0.00045663302879999995</v>
+        <v>0.0011714629212000002</v>
       </c>
     </row>
     <row r="111">
@@ -3435,25 +3429,25 @@
         <v>3</v>
       </c>
       <c r="B111" t="str">
-        <v>https://o4508376266309632.ingest.de.sentry.io/api/4508376494702672/envelope/?sentry_version=7&amp;sentry_key=d7c584aa121c14d7f88ef8696ed17cde&amp;sentry_client=sentry.javascript.browser%2F10.20.0</v>
+        <v>https://www.ralingen.kommune.no/images/ralingen/logo.svg</v>
       </c>
       <c r="C111" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D111" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E111">
-        <v>300</v>
+        <v>4871</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>4118</v>
       </c>
       <c r="G111">
-        <v>0.00008724389999999999</v>
+        <v>0.0014165501229999999</v>
       </c>
       <c r="H111">
-        <v>0.00011492442</v>
+        <v>0.0018659894993999998</v>
       </c>
     </row>
     <row r="112">
@@ -3461,25 +3455,25 @@
         <v>3</v>
       </c>
       <c r="B112" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/AdminApi/getredirects/9e9c6fdc-4e72-4750-b7ad-78dec31d7df8</v>
+        <v>https://fonts.gstatic.com/s/materialiconsoutlined/v110/gok-H7zzDkdnRel8-DQ6KAXJ69wP1tGnf4ZGhUcel5euIg.woff2</v>
       </c>
       <c r="C112" t="str">
-        <v>Fetch</v>
+        <v>Font</v>
       </c>
       <c r="D112" t="str">
-        <v>application/json</v>
+        <v>font/woff2</v>
       </c>
       <c r="E112">
-        <v>2171</v>
+        <v>155325</v>
       </c>
       <c r="F112">
-        <v>4250</v>
+        <v>155276</v>
       </c>
       <c r="G112">
-        <v>0.0006313550229999999</v>
+        <v>0.04517052922499999</v>
       </c>
       <c r="H112">
-        <v>0.0008316697194000002</v>
+        <v>0.05950211845500001</v>
       </c>
     </row>
     <row r="113">
@@ -3487,25 +3481,22 @@
         <v>3</v>
       </c>
       <c r="B113" t="str">
-        <v>https://fonts.googleapis.com/css?family=Material+Icons+Outlined%7CMaterial+Symbols+Outlined%7CSource+Sans+Pro:400,500,600,700</v>
+        <v>https://view.rekai.se/view</v>
       </c>
       <c r="C113" t="str">
-        <v>Stylesheet</v>
+        <v>Fetch</v>
       </c>
       <c r="D113" t="str">
-        <v>text/css</v>
+        <v/>
       </c>
       <c r="E113">
-        <v>1223</v>
-      </c>
-      <c r="F113">
-        <v>8733</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>0.00035566429899999995</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>0.00046850855220000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3513,25 +3504,22 @@
         <v>3</v>
       </c>
       <c r="B114" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;pageType=mal_beredskap&amp;language=nb_no</v>
+        <v>https://view.rekai.se/view</v>
       </c>
       <c r="C114" t="str">
-        <v>XHR</v>
+        <v>Preflight</v>
       </c>
       <c r="D114" t="str">
-        <v>application/json</v>
+        <v/>
       </c>
       <c r="E114">
-        <v>3849</v>
-      </c>
-      <c r="F114">
-        <v>10148</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0.0011193392369999997</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>0.0014744803086000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3539,25 +3527,25 @@
         <v>3</v>
       </c>
       <c r="B115" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/PublicContentApi/menucategory/9e9c6fdc-4e72-4750-b7ad-78dec31d7df8</v>
+        <v>https://fonts.gstatic.com/s/materialsymbolsoutlined/v296/kJF1BvYX7BgnkSrUwT8OhrdQw4oELdPIeeII9v6oDMzByHX9rA6RzaxHMPdY43zj-jCxv3fzvRNU22ZXGJpEpjC_1v-p_4MrImHCIJIZrDCvHOejbdhzrA.woff2</v>
       </c>
       <c r="C115" t="str">
-        <v>Fetch</v>
+        <v>Font</v>
       </c>
       <c r="D115" t="str">
-        <v>application/json</v>
+        <v>font/woff2</v>
       </c>
       <c r="E115">
-        <v>9560</v>
+        <v>303516</v>
       </c>
       <c r="F115">
-        <v>43253</v>
+        <v>303444</v>
       </c>
       <c r="G115">
-        <v>0.0027801722799999993</v>
+        <v>0.088266398508</v>
       </c>
       <c r="H115">
-        <v>0.003662258184</v>
+        <v>0.11627133420239999</v>
       </c>
     </row>
     <row r="116">
@@ -3565,25 +3553,25 @@
         <v>3</v>
       </c>
       <c r="B116" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles/36b375b5-8aca-4519-886f-b6291770589b?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;language=nb_no&amp;includeCategories=true&amp;getRecursiveContent=true</v>
+        <v>https://fonts.gstatic.com/s/sourcesanspro/v23/6xK3dSBYKcSV-LCoeQqfX1RYOo3qOK7lujVj9w.woff2</v>
       </c>
       <c r="C116" t="str">
-        <v>XHR</v>
+        <v>Font</v>
       </c>
       <c r="D116" t="str">
-        <v>application/json</v>
+        <v>font/woff2</v>
       </c>
       <c r="E116">
-        <v>3184</v>
+        <v>14895</v>
       </c>
       <c r="F116">
-        <v>5437</v>
+        <v>14868</v>
       </c>
       <c r="G116">
-        <v>0.0009259485919999999</v>
+        <v>0.0043316596349999995</v>
       </c>
       <c r="H116">
-        <v>0.0012197311776</v>
+        <v>0.0057059974529999995</v>
       </c>
     </row>
     <row r="117">
@@ -3591,25 +3579,25 @@
         <v>3</v>
       </c>
       <c r="B117" t="str">
-        <v>https://www.ralingen.kommune.no/images/ralingen/logo.svg</v>
+        <v>https://fonts.gstatic.com/s/sourcesanspro/v23/6xKydSBYKcSV-LCoeQqfX1RYOo3i54rwlxdu3cOWxw.woff2</v>
       </c>
       <c r="C117" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D117" t="str">
-        <v>image/svg+xml</v>
+        <v>font/woff2</v>
       </c>
       <c r="E117">
-        <v>4871</v>
+        <v>14903</v>
       </c>
       <c r="F117">
-        <v>4118</v>
+        <v>14876</v>
       </c>
       <c r="G117">
-        <v>0.0014165501229999999</v>
+        <v>0.004333986139</v>
       </c>
       <c r="H117">
-        <v>0.0018659894993999998</v>
+        <v>0.005709062104199999</v>
       </c>
     </row>
     <row r="118">
@@ -3617,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="B118" t="str">
-        <v>https://fonts.gstatic.com/s/materialiconsoutlined/v110/gok-H7zzDkdnRel8-DQ6KAXJ69wP1tGnf4ZGhUcel5euIg.woff2</v>
+        <v>https://fonts.gstatic.com/s/sourcesanspro/v23/6xKydSBYKcSV-LCoeQqfX1RYOo3ig4vwlxdu3cOWxw.woff2</v>
       </c>
       <c r="C118" t="str">
         <v>Font</v>
@@ -3626,16 +3614,16 @@
         <v>font/woff2</v>
       </c>
       <c r="E118">
-        <v>155325</v>
+        <v>14751</v>
       </c>
       <c r="F118">
-        <v>155276</v>
+        <v>14724</v>
       </c>
       <c r="G118">
-        <v>0.04517052922499999</v>
+        <v>0.004289782563</v>
       </c>
       <c r="H118">
-        <v>0.05950211845500001</v>
+        <v>0.0056508337314000005</v>
       </c>
     </row>
     <row r="119">
@@ -3643,7 +3631,7 @@
         <v>3</v>
       </c>
       <c r="B119" t="str">
-        <v>https://view.rekai.se/view</v>
+        <v>https://umami.backstage.prokom.no/api/send</v>
       </c>
       <c r="C119" t="str">
         <v>Preflight</v>
@@ -3666,7 +3654,7 @@
         <v>3</v>
       </c>
       <c r="B120" t="str">
-        <v>https://view.rekai.se/view</v>
+        <v>https://umami.backstage.prokom.no/api/send</v>
       </c>
       <c r="C120" t="str">
         <v>Fetch</v>
@@ -3675,16 +3663,16 @@
         <v>application/json</v>
       </c>
       <c r="E120">
-        <v>191</v>
+        <v>739</v>
       </c>
       <c r="F120">
-        <v>17</v>
+        <v>419</v>
       </c>
       <c r="G120">
-        <v>0.00005554528299999999</v>
+        <v>0.00021491080699999996</v>
       </c>
       <c r="H120">
-        <v>0.0000731685474</v>
+        <v>0.00028309715460000007</v>
       </c>
     </row>
     <row r="121">
@@ -3692,25 +3680,25 @@
         <v>3</v>
       </c>
       <c r="B121" t="str">
-        <v>https://fonts.gstatic.com/s/materialsymbolsoutlined/v296/kJF1BvYX7BgnkSrUwT8OhrdQw4oELdPIeeII9v6oDMzByHX9rA6RzaxHMPdY43zj-jCxv3fzvRNU22ZXGJpEpjC_1v-p_4MrImHCIJIZrDCvHOejbdhzrA.woff2</v>
+        <v>https://www.ralingen.kommune.no/images/ralingen/kommunevaapen.svg</v>
       </c>
       <c r="C121" t="str">
-        <v>Font</v>
+        <v>Other</v>
       </c>
       <c r="D121" t="str">
-        <v>font/woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E121">
-        <v>303516</v>
+        <v>2378</v>
       </c>
       <c r="F121">
-        <v>303444</v>
+        <v>1626</v>
       </c>
       <c r="G121">
-        <v>0.088266398508</v>
+        <v>0.000691553314</v>
       </c>
       <c r="H121">
-        <v>0.11627133420239999</v>
+        <v>0.0009109675692</v>
       </c>
     </row>
     <row r="122">
@@ -3718,25 +3706,25 @@
         <v>3</v>
       </c>
       <c r="B122" t="str">
-        <v>https://fonts.gstatic.com/s/sourcesanspro/v23/6xK3dSBYKcSV-LCoeQqfX1RYOo3qOK7lujVj9w.woff2</v>
+        <v>https://www.ralingen.kommune.no/images/ralingen/kommunevaapen.svg</v>
       </c>
       <c r="C122" t="str">
-        <v>Font</v>
+        <v>Other</v>
       </c>
       <c r="D122" t="str">
-        <v>font/woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E122">
-        <v>14895</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>14868</v>
+        <v>1626</v>
       </c>
       <c r="G122">
-        <v>0.0043316596349999995</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>0.0057059974529999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3744,25 +3732,25 @@
         <v>3</v>
       </c>
       <c r="B123" t="str">
-        <v>https://fonts.gstatic.com/s/sourcesanspro/v23/6xKydSBYKcSV-LCoeQqfX1RYOo3i54rwlxdu3cOWxw.woff2</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles/d56590f9-282c-4605-8446-f9152a30bc1d?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;language=nb_no&amp;includeCategories=true&amp;getRecursiveContent=true</v>
       </c>
       <c r="C123" t="str">
-        <v>Font</v>
+        <v>Fetch</v>
       </c>
       <c r="D123" t="str">
-        <v>font/woff2</v>
+        <v>application/json</v>
       </c>
       <c r="E123">
-        <v>14903</v>
+        <v>2409</v>
       </c>
       <c r="F123">
-        <v>14876</v>
+        <v>3213</v>
       </c>
       <c r="G123">
-        <v>0.004333986139</v>
+        <v>0.0007005685169999999</v>
       </c>
       <c r="H123">
-        <v>0.005709062104199999</v>
+        <v>0.0009228430926000002</v>
       </c>
     </row>
     <row r="124">
@@ -3770,25 +3758,25 @@
         <v>3</v>
       </c>
       <c r="B124" t="str">
-        <v>https://fonts.gstatic.com/s/sourcesanspro/v23/6xKydSBYKcSV-LCoeQqfX1RYOo3ig4vwlxdu3cOWxw.woff2</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-4NGW3NLCCC</v>
       </c>
       <c r="C124" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D124" t="str">
-        <v>font/woff2</v>
+        <v>application/javascript</v>
       </c>
       <c r="E124">
-        <v>14751</v>
+        <v>145725</v>
       </c>
       <c r="F124">
-        <v>14724</v>
+        <v>426979</v>
       </c>
       <c r="G124">
-        <v>0.004289782563</v>
+        <v>0.042378724425</v>
       </c>
       <c r="H124">
-        <v>0.0056508337314000005</v>
+        <v>0.05582453701500001</v>
       </c>
     </row>
     <row r="125">
@@ -3796,22 +3784,25 @@
         <v>3</v>
       </c>
       <c r="B125" t="str">
-        <v>https://umami.backstage.prokom.no/api/send</v>
+        <v>https://www.ralingen.kommune.no/images/some/facebook.svg</v>
       </c>
       <c r="C125" t="str">
-        <v>Preflight</v>
+        <v>Image</v>
       </c>
       <c r="D125" t="str">
-        <v/>
+        <v>image/svg+xml</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1406</v>
+      </c>
+      <c r="F125">
+        <v>655</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>0.000408883078</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>0.0005386124484</v>
       </c>
     </row>
     <row r="126">
@@ -3819,25 +3810,25 @@
         <v>3</v>
       </c>
       <c r="B126" t="str">
-        <v>https://umami.backstage.prokom.no/api/send</v>
+        <v>https://www.ralingen.kommune.no/images/some/instagram.svg</v>
       </c>
       <c r="C126" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D126" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E126">
-        <v>739</v>
+        <v>2967</v>
       </c>
       <c r="F126">
-        <v>419</v>
+        <v>2215</v>
       </c>
       <c r="G126">
-        <v>0.00021491080699999996</v>
+        <v>0.0008628421709999999</v>
       </c>
       <c r="H126">
-        <v>0.00028309715460000007</v>
+        <v>0.0011366025138000002</v>
       </c>
     </row>
     <row r="127">
@@ -3845,25 +3836,25 @@
         <v>3</v>
       </c>
       <c r="B127" t="str">
-        <v>https://www.ralingen.kommune.no/images/ralingen/kommunevaapen.svg</v>
+        <v>https://www.ralingen.kommune.no/images/some/linkedin.svg</v>
       </c>
       <c r="C127" t="str">
-        <v>Other</v>
+        <v>Image</v>
       </c>
       <c r="D127" t="str">
         <v>image/svg+xml</v>
       </c>
       <c r="E127">
-        <v>2378</v>
+        <v>1238</v>
       </c>
       <c r="F127">
-        <v>1626</v>
+        <v>487</v>
       </c>
       <c r="G127">
-        <v>0.000691553314</v>
+        <v>0.000360026494</v>
       </c>
       <c r="H127">
-        <v>0.0009109675692</v>
+        <v>0.0004742547732</v>
       </c>
     </row>
     <row r="128">
@@ -3871,19 +3862,16 @@
         <v>3</v>
       </c>
       <c r="B128" t="str">
-        <v>https://www.ralingen.kommune.no/images/ralingen/kommunevaapen.svg</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;category=ff373347-8373-4c64-b528-689f77fcd395&amp;contentTypes=5be9ba0d-3682-4493-9587-306a99911bf3,8ee596e3-98cc-43e0-b785-96cc6325773c,93847071-c959-4ce5-a79a-686af7dbd419,e662f30f-ecd9-4974-8657-35b726365572,09ceb3f2-3b86-4a5f-a823-16c6210982bc,a72e7e73-1864-46ee-adba-814d05b51d9e,fd54728e-1956-433b-a33b-a7f95023dd37,1bb71f41-4ee6-4394-b78f-3202e2f5eeda&amp;language=nb_no&amp;limit=12&amp;offset=0&amp;includeCategories=true&amp;getRecursiveContent=true&amp;LanguageMode=Strict</v>
       </c>
       <c r="C128" t="str">
-        <v>Other</v>
+        <v>Preflight</v>
       </c>
       <c r="D128" t="str">
-        <v>image/svg+xml</v>
+        <v/>
       </c>
       <c r="E128">
         <v>0</v>
-      </c>
-      <c r="F128">
-        <v>1626</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -3897,25 +3885,25 @@
         <v>3</v>
       </c>
       <c r="B129" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles/d56590f9-282c-4605-8446-f9152a30bc1d?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;language=nb_no&amp;includeCategories=true&amp;getRecursiveContent=true</v>
+        <v>https://www.ralingen.kommune.no/images/ralingen/symbol-cluster.svg</v>
       </c>
       <c r="C129" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D129" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E129">
-        <v>2418</v>
+        <v>1794</v>
       </c>
       <c r="F129">
-        <v>3213</v>
+        <v>1042</v>
       </c>
       <c r="G129">
-        <v>0.0007031858339999999</v>
+        <v>0.000521718522</v>
       </c>
       <c r="H129">
-        <v>0.0009262908252000001</v>
+        <v>0.0006872480316000001</v>
       </c>
     </row>
     <row r="130">
@@ -3923,25 +3911,25 @@
         <v>3</v>
       </c>
       <c r="B130" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-4NGW3NLCCC</v>
+        <v>https://predict.rekai.se/predict?mb=1&amp;vt=2&amp;v30=1&amp;dlv=30&amp;p=13371520&amp;ubl=en-GB&amp;nr=6&amp;addcontent=true&amp;pl=nb&amp;currentp=%2F&amp;currentid=%2F&amp;pn=Forside%20-%20R%C3%A6lingen%20kommune&amp;p0=%2F</v>
       </c>
       <c r="C130" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D130" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E130">
-        <v>145707</v>
+        <v>5673</v>
       </c>
       <c r="F130">
-        <v>426969</v>
+        <v>5259</v>
       </c>
       <c r="G130">
-        <v>0.042373489790999995</v>
+        <v>0.0016497821489999999</v>
       </c>
       <c r="H130">
-        <v>0.0558176415498</v>
+        <v>0.0021732207822</v>
       </c>
     </row>
     <row r="131">
@@ -3949,25 +3937,25 @@
         <v>3</v>
       </c>
       <c r="B131" t="str">
-        <v>https://www.ralingen.kommune.no/images/some/facebook.svg</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=17c15981-758d-4d09-a7ee-b2d47d2af6f0%20%20%20%20%20%20&amp;limit=1&amp;offset=0&amp;sortOrder=Published&amp;language=nb_no</v>
       </c>
       <c r="C131" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D131" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E131">
-        <v>1406</v>
+        <v>2272</v>
       </c>
       <c r="F131">
-        <v>655</v>
+        <v>3301</v>
       </c>
       <c r="G131">
-        <v>0.000408883078</v>
+        <v>0.0006607271359999998</v>
       </c>
       <c r="H131">
-        <v>0.0005386124484</v>
+        <v>0.0008703609408</v>
       </c>
     </row>
     <row r="132">
@@ -3975,25 +3963,25 @@
         <v>3</v>
       </c>
       <c r="B132" t="str">
-        <v>https://www.ralingen.kommune.no/images/some/instagram.svg</v>
+        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=2390&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=&amp;Kunde=ralingen&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=&amp;Distributor=</v>
       </c>
       <c r="C132" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D132" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E132">
-        <v>2967</v>
+        <v>22206</v>
       </c>
       <c r="F132">
-        <v>2215</v>
+        <v>266424</v>
       </c>
       <c r="G132">
-        <v>0.0008628421709999999</v>
+        <v>0.006457793477999999</v>
       </c>
       <c r="H132">
-        <v>0.0011366025138000002</v>
+        <v>0.0085067055684</v>
       </c>
     </row>
     <row r="133">
@@ -4001,25 +3989,25 @@
         <v>3</v>
       </c>
       <c r="B133" t="str">
-        <v>https://www.ralingen.kommune.no/images/some/linkedin.svg</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=73da834a-d2cf-4659-ab23-760986ecbfde&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=3&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
       </c>
       <c r="C133" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D133" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E133">
-        <v>1238</v>
+        <v>13037</v>
       </c>
       <c r="F133">
-        <v>487</v>
+        <v>32820</v>
       </c>
       <c r="G133">
-        <v>0.000360026494</v>
+        <v>0.0037913290809999996</v>
       </c>
       <c r="H133">
-        <v>0.0004742547732</v>
+        <v>0.0049942322118000015</v>
       </c>
     </row>
     <row r="134">
@@ -4027,25 +4015,25 @@
         <v>3</v>
       </c>
       <c r="B134" t="str">
-        <v>https://www.ralingen.kommune.no/images/ralingen/symbol-cluster.svg</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=4e159a34-1e45-413f-b053-a2bd9f843121&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=1&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
       </c>
       <c r="C134" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D134" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E134">
-        <v>1794</v>
+        <v>3082</v>
       </c>
       <c r="F134">
-        <v>1042</v>
+        <v>5490</v>
       </c>
       <c r="G134">
-        <v>0.000521718522</v>
+        <v>0.0008962856659999999</v>
       </c>
       <c r="H134">
-        <v>0.0006872480316000001</v>
+        <v>0.0011806568748</v>
       </c>
     </row>
     <row r="135">
@@ -4053,25 +4041,25 @@
         <v>3</v>
       </c>
       <c r="B135" t="str">
-        <v>https://predict.rekai.se/predict?mb=1&amp;vt=2&amp;v30=1&amp;dlv=30&amp;p=13371520&amp;ubl=en-GB&amp;nr=6&amp;addcontent=true&amp;pl=nb&amp;currentp=%2F&amp;currentid=%2F&amp;pn=Forside%20-%20R%C3%A6lingen%20kommune&amp;p0=%2F</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;category=ff373347-8373-4c64-b528-689f77fcd395&amp;contentTypes=5be9ba0d-3682-4493-9587-306a99911bf3,8ee596e3-98cc-43e0-b785-96cc6325773c,93847071-c959-4ce5-a79a-686af7dbd419,e662f30f-ecd9-4974-8657-35b726365572,09ceb3f2-3b86-4a5f-a823-16c6210982bc,a72e7e73-1864-46ee-adba-814d05b51d9e,fd54728e-1956-433b-a33b-a7f95023dd37,1bb71f41-4ee6-4394-b78f-3202e2f5eeda&amp;language=nb_no&amp;limit=12&amp;offset=0&amp;includeCategories=true&amp;getRecursiveContent=true&amp;LanguageMode=Strict</v>
       </c>
       <c r="C135" t="str">
-        <v>XHR</v>
+        <v>Fetch</v>
       </c>
       <c r="D135" t="str">
         <v>application/json</v>
       </c>
       <c r="E135">
-        <v>5679</v>
+        <v>29286</v>
       </c>
       <c r="F135">
-        <v>5263</v>
+        <v>87490</v>
       </c>
       <c r="G135">
-        <v>0.0016515270269999997</v>
+        <v>0.008516749517999998</v>
       </c>
       <c r="H135">
-        <v>0.0021755192706</v>
+        <v>0.0112189218804</v>
       </c>
     </row>
     <row r="136">
@@ -4079,25 +4067,22 @@
         <v>3</v>
       </c>
       <c r="B136" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=17c15981-758d-4d09-a7ee-b2d47d2af6f0%20%20%20%20%20%20&amp;limit=1&amp;offset=0&amp;sortOrder=Published&amp;language=nb_no</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-4NGW3NLCCC&amp;gtm=45je5bd0h2v9102003320za200zd9102003320&amp;_p=1763143511616&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1020438095.1763143512&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115497442~115583767~115938466~115938468~116217636~116217638&amp;sid=1763143511&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.ralingen.kommune.no%2F&amp;dt=Forside%20-%20R%C3%A6lingen%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=920</v>
       </c>
       <c r="C136" t="str">
         <v>Fetch</v>
       </c>
       <c r="D136" t="str">
-        <v>application/json</v>
+        <v>text/plain</v>
       </c>
       <c r="E136">
-        <v>2272</v>
-      </c>
-      <c r="F136">
-        <v>3301</v>
+        <v>554</v>
       </c>
       <c r="G136">
-        <v>0.0006607271359999998</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H136">
-        <v>0.0008703609408</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="137">
@@ -4105,25 +4090,25 @@
         <v>3</v>
       </c>
       <c r="B137" t="str">
-        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=2390&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=&amp;Kunde=ralingen&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=&amp;Distributor=</v>
+        <v>https://prokom-aimcms.azurewebsites.net/api/PublicContentApi/find/0c35ff6a-72df-48ec-a0bf-f61e723d5bdb</v>
       </c>
       <c r="C137" t="str">
-        <v>Fetch</v>
+        <v>XHR</v>
       </c>
       <c r="D137" t="str">
         <v>application/json</v>
       </c>
       <c r="E137">
-        <v>22206</v>
+        <v>1667</v>
       </c>
       <c r="F137">
-        <v>266424</v>
+        <v>1987</v>
       </c>
       <c r="G137">
-        <v>0.006457793477999999</v>
+        <v>0.0004847852709999999</v>
       </c>
       <c r="H137">
-        <v>0.0085067055684</v>
+        <v>0.0006385966938000002</v>
       </c>
     </row>
     <row r="138">
@@ -4131,25 +4116,25 @@
         <v>3</v>
       </c>
       <c r="B138" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=73da834a-d2cf-4659-ab23-760986ecbfde&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=3&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,ar_1:1/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/36b2b854-33e7-4090-a120-8ebad1791c42.png</v>
       </c>
       <c r="C138" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D138" t="str">
-        <v>application/json</v>
+        <v>image/png</v>
       </c>
       <c r="E138">
-        <v>13055</v>
+        <v>688571</v>
       </c>
       <c r="F138">
-        <v>32820</v>
+        <v>687240</v>
       </c>
       <c r="G138">
-        <v>0.0037965637149999995</v>
+        <v>0.20024539822299997</v>
       </c>
       <c r="H138">
-        <v>0.0050011276770000005</v>
+        <v>0.26377874267940005</v>
       </c>
     </row>
     <row r="139">
@@ -4157,25 +4142,25 @@
         <v>3</v>
       </c>
       <c r="B139" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;contentType=4e159a34-1e45-413f-b053-a2bd9f843121&amp;language=nb_no&amp;includeCategories=true&amp;offset=0&amp;limit=1&amp;sortBy=Published&amp;useSortIndex=true&amp;getRecursiveContent=true</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/733decd9-bb39-4b19-8b3a-3ff51c290e27.jpg</v>
       </c>
       <c r="C139" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D139" t="str">
-        <v>application/json</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E139">
-        <v>3073</v>
+        <v>22299</v>
       </c>
       <c r="F139">
-        <v>5490</v>
+        <v>21950</v>
       </c>
       <c r="G139">
-        <v>0.0008936683489999998</v>
+        <v>0.006484839086999999</v>
       </c>
       <c r="H139">
-        <v>0.0011772091422</v>
+        <v>0.0085423321386</v>
       </c>
     </row>
     <row r="140">
@@ -4183,25 +4168,25 @@
         <v>3</v>
       </c>
       <c r="B140" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;category=ff373347-8373-4c64-b528-689f77fcd395&amp;contentTypes=5be9ba0d-3682-4493-9587-306a99911bf3,8ee596e3-98cc-43e0-b785-96cc6325773c,93847071-c959-4ce5-a79a-686af7dbd419,e662f30f-ecd9-4974-8657-35b726365572,09ceb3f2-3b86-4a5f-a823-16c6210982bc,a72e7e73-1864-46ee-adba-814d05b51d9e,fd54728e-1956-433b-a33b-a7f95023dd37,1bb71f41-4ee6-4394-b78f-3202e2f5eeda&amp;language=nb_no&amp;limit=12&amp;offset=0&amp;includeCategories=true&amp;getRecursiveContent=true&amp;LanguageMode=Strict</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/be02a550-ef55-4124-b758-b14d8aa3a61b.jpg</v>
       </c>
       <c r="C140" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D140" t="str">
-        <v>application/json</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E140">
-        <v>29259</v>
+        <v>29766</v>
       </c>
       <c r="F140">
-        <v>87490</v>
+        <v>29398</v>
       </c>
       <c r="G140">
-        <v>0.008508897566999999</v>
+        <v>0.008656339757999999</v>
       </c>
       <c r="H140">
-        <v>0.011208578682600001</v>
+        <v>0.011402800952399997</v>
       </c>
     </row>
     <row r="141">
@@ -4209,22 +4194,25 @@
         <v>3</v>
       </c>
       <c r="B141" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/Public/articles?subscriptionId=9e9c6fdc-4e72-4750-b7ad-78dec31d7df8&amp;category=ff373347-8373-4c64-b528-689f77fcd395&amp;contentTypes=5be9ba0d-3682-4493-9587-306a99911bf3,8ee596e3-98cc-43e0-b785-96cc6325773c,93847071-c959-4ce5-a79a-686af7dbd419,e662f30f-ecd9-4974-8657-35b726365572,09ceb3f2-3b86-4a5f-a823-16c6210982bc,a72e7e73-1864-46ee-adba-814d05b51d9e,fd54728e-1956-433b-a33b-a7f95023dd37,1bb71f41-4ee6-4394-b78f-3202e2f5eeda&amp;language=nb_no&amp;limit=12&amp;offset=0&amp;includeCategories=true&amp;getRecursiveContent=true&amp;LanguageMode=Strict</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/956be889-02c4-47b1-8af0-810f58ba7ed1.png</v>
       </c>
       <c r="C141" t="str">
-        <v>Preflight</v>
+        <v>Image</v>
       </c>
       <c r="D141" t="str">
-        <v/>
+        <v>image/png</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>154136</v>
+      </c>
+      <c r="F141">
+        <v>153641</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>0.044824752568</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>0.0590466346704</v>
       </c>
     </row>
     <row r="142">
@@ -4232,22 +4220,25 @@
         <v>3</v>
       </c>
       <c r="B142" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-4NGW3NLCCC&amp;gtm=45je5bd0h2v9102003320za200zd9102003320&amp;_p=1763141067831&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=560776566.1763141068&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~105391252~115583767~115938465~115938469~116217636~116217638&amp;sid=1763141068&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.ralingen.kommune.no%2F&amp;dt=Forside%20-%20R%C3%A6lingen%20kommune&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=943</v>
+        <v>https://aimblob.blob.core.windows.net/aimfiles/836aff4b-2951-489e-bd44-5ee7d66ee7dc.jpg</v>
       </c>
       <c r="C142" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D142" t="str">
-        <v>text/plain</v>
+        <v>application/octet-stream</v>
       </c>
       <c r="E142">
-        <v>554</v>
+        <v>1931986</v>
+      </c>
+      <c r="F142">
+        <v>1931532</v>
       </c>
       <c r="G142">
-        <v>0.00016111040199999997</v>
+        <v>0.5618466446179999</v>
       </c>
       <c r="H142">
-        <v>0.0002122270956</v>
+        <v>0.7401079016604001</v>
       </c>
     </row>
     <row r="143">
@@ -4255,25 +4246,25 @@
         <v>3</v>
       </c>
       <c r="B143" t="str">
-        <v>https://prokom-aimcms.azurewebsites.net/api/PublicContentApi/find/0c35ff6a-72df-48ec-a0bf-f61e723d5bdb</v>
+        <v>https://aimblob.blob.core.windows.net/aimfiles/3f35ddfc-a484-4118-92af-adaa45a8cd89.jpg</v>
       </c>
       <c r="C143" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D143" t="str">
-        <v>application/json</v>
+        <v>application/octet-stream</v>
       </c>
       <c r="E143">
-        <v>1667</v>
+        <v>961362</v>
       </c>
       <c r="F143">
-        <v>1987</v>
+        <v>960909</v>
       </c>
       <c r="G143">
-        <v>0.0004847852709999999</v>
+        <v>0.27957656730599995</v>
       </c>
       <c r="H143">
-        <v>0.0006385966938000002</v>
+        <v>0.3682799008668</v>
       </c>
     </row>
     <row r="144">
@@ -4281,25 +4272,25 @@
         <v>3</v>
       </c>
       <c r="B144" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,ar_1:1/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/36b2b854-33e7-4090-a120-8ebad1791c42.png</v>
+        <v>https://aimblob.blob.core.windows.net/aimfiles/69b21600-a44c-48e7-bb8a-5c1cde1610da.jpg</v>
       </c>
       <c r="C144" t="str">
         <v>Image</v>
       </c>
       <c r="D144" t="str">
-        <v>image/png</v>
+        <v>application/octet-stream</v>
       </c>
       <c r="E144">
-        <v>688332</v>
+        <v>330721</v>
       </c>
       <c r="F144">
-        <v>687240</v>
+        <v>330268</v>
       </c>
       <c r="G144">
-        <v>0.20017589391599996</v>
+        <v>0.09617796617299998</v>
       </c>
       <c r="H144">
-        <v>0.26368718622480003</v>
+        <v>0.12669306368940003</v>
       </c>
     </row>
     <row r="145">
@@ -4307,186 +4298,30 @@
         <v>3</v>
       </c>
       <c r="B145" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/733decd9-bb39-4b19-8b3a-3ff51c290e27.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/g_auto,c_fill,f_auto/https://aimblob.blob.core.windows.net/aimfiles/0c35ff6a-72df-48ec-a0bf-f61e723d5bdb.png</v>
       </c>
       <c r="C145" t="str">
         <v>Image</v>
       </c>
       <c r="D145" t="str">
-        <v>image/jpeg</v>
+        <v>image/webp</v>
       </c>
       <c r="E145">
-        <v>22300</v>
+        <v>1273901</v>
       </c>
       <c r="F145">
-        <v>21950</v>
+        <v>1271956</v>
       </c>
       <c r="G145">
-        <v>0.0064851299</v>
+        <v>0.37046697151299995</v>
       </c>
       <c r="H145">
-        <v>0.00854271522</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>3</v>
-      </c>
-      <c r="B146" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/be02a550-ef55-4124-b758-b14d8aa3a61b.jpg</v>
-      </c>
-      <c r="C146" t="str">
-        <v>Image</v>
-      </c>
-      <c r="D146" t="str">
-        <v>image/jpeg</v>
-      </c>
-      <c r="E146">
-        <v>29758</v>
-      </c>
-      <c r="F146">
-        <v>29398</v>
-      </c>
-      <c r="G146">
-        <v>0.008654013253999998</v>
-      </c>
-      <c r="H146">
-        <v>0.011399736301200001</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>3</v>
-      </c>
-      <c r="B147" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/c_fill,w_360,ar_16:9/c_limit,w_750/https://aimblob.blob.core.windows.net/aimfiles/956be889-02c4-47b1-8af0-810f58ba7ed1.png</v>
-      </c>
-      <c r="C147" t="str">
-        <v>Image</v>
-      </c>
-      <c r="D147" t="str">
-        <v>image/png</v>
-      </c>
-      <c r="E147">
-        <v>154359</v>
-      </c>
-      <c r="F147">
-        <v>153641</v>
-      </c>
-      <c r="G147">
-        <v>0.044889603867</v>
-      </c>
-      <c r="H147">
-        <v>0.0591320618226</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>3</v>
-      </c>
-      <c r="B148" t="str">
-        <v>https://aimblob.blob.core.windows.net/aimfiles/836aff4b-2951-489e-bd44-5ee7d66ee7dc.jpg</v>
-      </c>
-      <c r="C148" t="str">
-        <v>Image</v>
-      </c>
-      <c r="D148" t="str">
-        <v>application/octet-stream</v>
-      </c>
-      <c r="E148">
-        <v>1931986</v>
-      </c>
-      <c r="F148">
-        <v>1931532</v>
-      </c>
-      <c r="G148">
-        <v>0.5618466446179999</v>
-      </c>
-      <c r="H148">
-        <v>0.7401079016604001</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>3</v>
-      </c>
-      <c r="B149" t="str">
-        <v>https://aimblob.blob.core.windows.net/aimfiles/3f35ddfc-a484-4118-92af-adaa45a8cd89.jpg</v>
-      </c>
-      <c r="C149" t="str">
-        <v>Image</v>
-      </c>
-      <c r="D149" t="str">
-        <v>application/octet-stream</v>
-      </c>
-      <c r="E149">
-        <v>961362</v>
-      </c>
-      <c r="F149">
-        <v>960909</v>
-      </c>
-      <c r="G149">
-        <v>0.27957656730599995</v>
-      </c>
-      <c r="H149">
-        <v>0.3682799008668</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>3</v>
-      </c>
-      <c r="B150" t="str">
-        <v>https://aimblob.blob.core.windows.net/aimfiles/69b21600-a44c-48e7-bb8a-5c1cde1610da.jpg</v>
-      </c>
-      <c r="C150" t="str">
-        <v>Image</v>
-      </c>
-      <c r="D150" t="str">
-        <v>application/octet-stream</v>
-      </c>
-      <c r="E150">
-        <v>330721</v>
-      </c>
-      <c r="F150">
-        <v>330268</v>
-      </c>
-      <c r="G150">
-        <v>0.09617796617299998</v>
-      </c>
-      <c r="H150">
-        <v>0.12669306368940003</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>3</v>
-      </c>
-      <c r="B151" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/g_auto,c_fill,f_auto/https://aimblob.blob.core.windows.net/aimfiles/0c35ff6a-72df-48ec-a0bf-f61e723d5bdb.png</v>
-      </c>
-      <c r="C151" t="str">
-        <v>Image</v>
-      </c>
-      <c r="D151" t="str">
-        <v>image/webp</v>
-      </c>
-      <c r="E151">
-        <v>1273879</v>
-      </c>
-      <c r="F151">
-        <v>1271956</v>
-      </c>
-      <c r="G151">
-        <v>0.37046057362699997</v>
-      </c>
-      <c r="H151">
-        <v>0.4879993507506001</v>
+        <v>0.4880077785414001</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H151"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H145"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4545,13 +4380,13 @@
         <v>Script</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>1807891</v>
+        <v>1662469</v>
       </c>
       <c r="D4">
-        <v>6074419</v>
+        <v>5648355</v>
       </c>
     </row>
     <row r="5">
@@ -4559,13 +4394,13 @@
         <v>Fetch</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>260538</v>
+        <v>258530</v>
       </c>
       <c r="D5">
-        <v>1340364</v>
+        <v>1340221</v>
       </c>
     </row>
     <row r="6">
@@ -4576,10 +4411,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>42847</v>
+        <v>39513</v>
       </c>
       <c r="D6">
-        <v>68505</v>
+        <v>63056</v>
       </c>
     </row>
     <row r="7">
@@ -4587,13 +4422,13 @@
         <v>Image</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>16214902</v>
+        <v>16207612</v>
       </c>
       <c r="D7">
-        <v>16186233</v>
+        <v>16181834</v>
       </c>
     </row>
     <row r="8">
@@ -4671,13 +4506,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6763605</v>
+        <v>6763783</v>
       </c>
       <c r="C2">
-        <v>1.9669442608649998</v>
+        <v>1.9669960255789998</v>
       </c>
       <c r="D2">
-        <v>2.5910112724470005</v>
+        <v>2.5910794609362005</v>
       </c>
     </row>
     <row r="3">
@@ -4685,13 +4520,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6763113</v>
+        <v>6605515</v>
       </c>
       <c r="C3">
-        <v>1.9668011808689998</v>
+        <v>1.9209696336949997</v>
       </c>
       <c r="D3">
-        <v>2.5908227963982</v>
+        <v>2.530449933921</v>
       </c>
     </row>
     <row r="4">
@@ -4699,13 +4534,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6763966</v>
+        <v>6763332</v>
       </c>
       <c r="C4">
-        <v>1.9670492443579997</v>
+        <v>1.9668648689159995</v>
       </c>
       <c r="D4">
-        <v>2.5911495648324</v>
+        <v>2.5909066912248004</v>
       </c>
     </row>
     <row r="5">
@@ -4713,13 +4548,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>6763605</v>
+        <v>6763332</v>
       </c>
       <c r="C5">
-        <v>1.9669442608649998</v>
+        <v>1.9668648689159995</v>
       </c>
       <c r="D5">
-        <v>2.5910112724470005</v>
+        <v>2.5909066912248004</v>
       </c>
     </row>
   </sheetData>
